--- a/data/df_thefts_PMX_final_2019.xlsx
+++ b/data/df_thefts_PMX_final_2019.xlsx
@@ -3090,7 +3090,7 @@
         <v>22</v>
       </c>
       <c r="C2">
-        <v>11.88</v>
+        <v>1.27</v>
       </c>
       <c r="D2">
         <v>20.1</v>
@@ -3188,7 +3188,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>9.91</v>
+        <v>19.63</v>
       </c>
       <c r="D3">
         <v>20.27</v>
@@ -3286,7 +3286,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>11.97</v>
+        <v>71.66</v>
       </c>
       <c r="D4">
         <v>20.18</v>
@@ -3378,7 +3378,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>22.66</v>
+        <v>17.71</v>
       </c>
       <c r="D5">
         <v>20.18</v>
@@ -3476,7 +3476,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>14.77</v>
+        <v>31.15</v>
       </c>
       <c r="D6">
         <v>20.17</v>
@@ -3574,7 +3574,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>14.12</v>
+        <v>24.92</v>
       </c>
       <c r="D7">
         <v>20.23</v>
@@ -3672,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>10.62</v>
+        <v>112.77</v>
       </c>
       <c r="D8">
         <v>21.37</v>
@@ -3764,7 +3764,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>9.02</v>
+        <v>40.7</v>
       </c>
       <c r="D9">
         <v>20.81</v>
@@ -3862,7 +3862,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>14.47</v>
+        <v>69.8</v>
       </c>
       <c r="D10">
         <v>20.29</v>
@@ -3960,7 +3960,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>8.539999999999999</v>
+        <v>14.59</v>
       </c>
       <c r="D11">
         <v>19.99</v>
@@ -4058,7 +4058,7 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>21.24</v>
+        <v>4.7</v>
       </c>
       <c r="D12">
         <v>19.77</v>
@@ -4156,7 +4156,7 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>21.69</v>
+        <v>2.09</v>
       </c>
       <c r="D13">
         <v>19.54</v>
@@ -4254,7 +4254,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>18.66</v>
+        <v>17.41</v>
       </c>
       <c r="D14">
         <v>19.88</v>
@@ -4352,7 +4352,7 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>12.51</v>
+        <v>0.67</v>
       </c>
       <c r="D15">
         <v>19.96</v>
@@ -4450,7 +4450,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>19.14</v>
+        <v>15.93</v>
       </c>
       <c r="D16">
         <v>19.24</v>
@@ -4548,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>23.59</v>
+        <v>8.18</v>
       </c>
       <c r="D17">
         <v>20.74</v>
@@ -4646,7 +4646,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>6.82</v>
+        <v>11.62</v>
       </c>
       <c r="D18">
         <v>21.03</v>
@@ -4744,7 +4744,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>12.34</v>
+        <v>4.23</v>
       </c>
       <c r="D19">
         <v>20.97</v>
@@ -4842,7 +4842,7 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>11.26</v>
+        <v>4.53</v>
       </c>
       <c r="D20">
         <v>20.82</v>
@@ -4940,7 +4940,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>12.43</v>
+        <v>15.45</v>
       </c>
       <c r="D21">
         <v>21.07</v>
@@ -5038,7 +5038,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>9.44</v>
+        <v>29.71</v>
       </c>
       <c r="D22">
         <v>21.13</v>
@@ -5130,7 +5130,7 @@
         <v>9</v>
       </c>
       <c r="C23">
-        <v>34.32</v>
+        <v>392.68</v>
       </c>
       <c r="D23">
         <v>20.34</v>
@@ -5228,7 +5228,7 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>17.71</v>
+        <v>156.86</v>
       </c>
       <c r="D24">
         <v>21.51</v>
@@ -5320,7 +5320,7 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>15.09</v>
+        <v>25.3</v>
       </c>
       <c r="D25">
         <v>21.45</v>
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>8.640000000000001</v>
+        <v>18.66</v>
       </c>
       <c r="D26">
         <v>20.75</v>
@@ -5602,7 +5602,7 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>60.31</v>
+        <v>3637.52</v>
       </c>
       <c r="D28">
         <v>22.03</v>
@@ -5691,7 +5691,7 @@
         <v>15</v>
       </c>
       <c r="C29">
-        <v>24.21</v>
+        <v>83.73</v>
       </c>
       <c r="D29">
         <v>21.29</v>
@@ -5789,7 +5789,7 @@
         <v>6</v>
       </c>
       <c r="C30">
-        <v>23.3</v>
+        <v>180.94</v>
       </c>
       <c r="D30">
         <v>21.67</v>
@@ -5881,7 +5881,7 @@
         <v>25</v>
       </c>
       <c r="C31">
-        <v>32.75</v>
+        <v>1072.72</v>
       </c>
       <c r="D31">
         <v>22.2</v>
@@ -5973,7 +5973,7 @@
         <v>23</v>
       </c>
       <c r="C32">
-        <v>11.88</v>
+        <v>20.17</v>
       </c>
       <c r="D32">
         <v>20.63</v>
@@ -6071,7 +6071,7 @@
         <v>27</v>
       </c>
       <c r="C33">
-        <v>15.83</v>
+        <v>19.28</v>
       </c>
       <c r="D33">
         <v>20.71</v>
@@ -6169,7 +6169,7 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>16.65</v>
+        <v>138.63</v>
       </c>
       <c r="D34">
         <v>19.01</v>
@@ -6362,7 +6362,7 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>20.73</v>
+        <v>214.91</v>
       </c>
       <c r="D36">
         <v>18.86</v>
@@ -6638,7 +6638,7 @@
         <v>15</v>
       </c>
       <c r="C39">
-        <v>10.31</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="D39">
         <v>19.73</v>
@@ -6736,7 +6736,7 @@
         <v>32</v>
       </c>
       <c r="C40">
-        <v>20.29</v>
+        <v>8.58</v>
       </c>
       <c r="D40">
         <v>21.24</v>
@@ -6834,7 +6834,7 @@
         <v>4</v>
       </c>
       <c r="C41">
-        <v>8.44</v>
+        <v>11.87</v>
       </c>
       <c r="D41">
         <v>20.14</v>
@@ -6932,7 +6932,7 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>19.97</v>
+        <v>199.36</v>
       </c>
       <c r="D42">
         <v>21.18</v>
@@ -7030,7 +7030,7 @@
         <v>13</v>
       </c>
       <c r="C43">
-        <v>13.47</v>
+        <v>30.24</v>
       </c>
       <c r="D43">
         <v>21.36</v>
@@ -7128,7 +7128,7 @@
         <v>21</v>
       </c>
       <c r="C44">
-        <v>14.39</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="D44">
         <v>17.35</v>
@@ -7226,7 +7226,7 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>61.5</v>
+        <v>1891.14</v>
       </c>
       <c r="D45">
         <v>21.03</v>
@@ -7324,7 +7324,7 @@
         <v>23</v>
       </c>
       <c r="C46">
-        <v>19.02</v>
+        <v>16.44</v>
       </c>
       <c r="D46">
         <v>20.48</v>
@@ -7422,7 +7422,7 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>18.59</v>
+        <v>28.8</v>
       </c>
       <c r="D47">
         <v>21.79</v>
@@ -7520,7 +7520,7 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>40.85</v>
+        <v>1668.71</v>
       </c>
       <c r="D48">
         <v>15.86</v>
@@ -7612,7 +7612,7 @@
         <v>5</v>
       </c>
       <c r="C49">
-        <v>11.21</v>
+        <v>1.3</v>
       </c>
       <c r="D49">
         <v>20.07</v>
@@ -7710,7 +7710,7 @@
         <v>26</v>
       </c>
       <c r="C50">
-        <v>20.39</v>
+        <v>83.16</v>
       </c>
       <c r="D50">
         <v>21.59</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>11.78</v>
+        <v>27.75</v>
       </c>
       <c r="D51">
         <v>21.73</v>
@@ -7900,7 +7900,7 @@
         <v>11</v>
       </c>
       <c r="C52">
-        <v>13.72</v>
+        <v>13.45</v>
       </c>
       <c r="D52">
         <v>20.27</v>
@@ -7998,7 +7998,7 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>14.72</v>
+        <v>216.73</v>
       </c>
       <c r="D53">
         <v>21.75</v>
@@ -8096,7 +8096,7 @@
         <v>16</v>
       </c>
       <c r="C54">
-        <v>14.32</v>
+        <v>2.01</v>
       </c>
       <c r="D54">
         <v>20.78</v>
@@ -8194,7 +8194,7 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>32.15</v>
+        <v>516.88</v>
       </c>
       <c r="D55">
         <v>20.5</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>22.8</v>
+        <v>173.27</v>
       </c>
       <c r="D56">
         <v>19.6</v>
@@ -8390,7 +8390,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>14.49</v>
+        <v>69.97</v>
       </c>
       <c r="D57">
         <v>20.39</v>
@@ -8488,7 +8488,7 @@
         <v>4</v>
       </c>
       <c r="C58">
-        <v>17.39</v>
+        <v>9.17</v>
       </c>
       <c r="D58">
         <v>20.39</v>
@@ -8586,7 +8586,7 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>10.03</v>
+        <v>100.61</v>
       </c>
       <c r="D59">
         <v>20.16</v>
@@ -8684,7 +8684,7 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>11.03</v>
+        <v>40.57</v>
       </c>
       <c r="D60">
         <v>20.1</v>
@@ -8782,7 +8782,7 @@
         <v>2</v>
       </c>
       <c r="C61">
-        <v>17.1</v>
+        <v>41.78</v>
       </c>
       <c r="D61">
         <v>20.75</v>
@@ -8880,7 +8880,7 @@
         <v>6</v>
       </c>
       <c r="C62">
-        <v>11.42</v>
+        <v>65.23</v>
       </c>
       <c r="D62">
         <v>19.96</v>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>5.72</v>
+        <v>6.55</v>
       </c>
       <c r="D63">
         <v>19.68</v>
@@ -9073,7 +9073,7 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>5.55</v>
+        <v>15.39</v>
       </c>
       <c r="D64">
         <v>19.8</v>
@@ -9171,7 +9171,7 @@
         <v>2</v>
       </c>
       <c r="C65">
-        <v>9.35</v>
+        <v>17.49</v>
       </c>
       <c r="D65">
         <v>21</v>
@@ -9269,7 +9269,7 @@
         <v>207</v>
       </c>
       <c r="C66">
-        <v>4.61</v>
+        <v>21.26</v>
       </c>
       <c r="D66">
         <v>19.89</v>
@@ -9462,7 +9462,7 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>6.45</v>
+        <v>13.88</v>
       </c>
       <c r="D68">
         <v>20.78</v>
@@ -9560,7 +9560,7 @@
         <v>2</v>
       </c>
       <c r="C69">
-        <v>3.52</v>
+        <v>12.37</v>
       </c>
       <c r="D69">
         <v>19.86</v>
@@ -9753,7 +9753,7 @@
         <v>8</v>
       </c>
       <c r="C71">
-        <v>5.4</v>
+        <v>4.16</v>
       </c>
       <c r="D71">
         <v>19.93</v>
@@ -9851,7 +9851,7 @@
         <v>120</v>
       </c>
       <c r="C72">
-        <v>6.3</v>
+        <v>19.84</v>
       </c>
       <c r="D72">
         <v>19.67</v>
@@ -9949,7 +9949,7 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>5.81</v>
+        <v>11.25</v>
       </c>
       <c r="D73">
         <v>20.88</v>
@@ -10047,7 +10047,7 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>3.33</v>
+        <v>11.09</v>
       </c>
       <c r="D74">
         <v>20.57</v>
@@ -10145,7 +10145,7 @@
         <v>253</v>
       </c>
       <c r="C75">
-        <v>11.14</v>
+        <v>24.82</v>
       </c>
       <c r="D75">
         <v>20.1</v>
@@ -10427,7 +10427,7 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>6.57</v>
+        <v>7.19</v>
       </c>
       <c r="D78">
         <v>20.68</v>
@@ -10525,7 +10525,7 @@
         <v>15</v>
       </c>
       <c r="C79">
-        <v>63.4</v>
+        <v>446.6</v>
       </c>
       <c r="D79">
         <v>20.51</v>
@@ -10617,7 +10617,7 @@
         <v>9</v>
       </c>
       <c r="C80">
-        <v>15.51</v>
+        <v>60.15</v>
       </c>
       <c r="D80">
         <v>19.95</v>
@@ -10715,7 +10715,7 @@
         <v>8</v>
       </c>
       <c r="C81">
-        <v>23.42</v>
+        <v>274.27</v>
       </c>
       <c r="D81">
         <v>21.13</v>
@@ -10813,7 +10813,7 @@
         <v>3</v>
       </c>
       <c r="C82">
-        <v>13.48</v>
+        <v>60.59</v>
       </c>
       <c r="D82">
         <v>20.67</v>
@@ -10911,7 +10911,7 @@
         <v>3</v>
       </c>
       <c r="C83">
-        <v>15.47</v>
+        <v>59.81</v>
       </c>
       <c r="D83">
         <v>19.5</v>
@@ -11009,7 +11009,7 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>24.79</v>
+        <v>102.44</v>
       </c>
       <c r="D84">
         <v>21.42</v>
@@ -11107,7 +11107,7 @@
         <v>20</v>
       </c>
       <c r="C85">
-        <v>24.04</v>
+        <v>48.17</v>
       </c>
       <c r="D85">
         <v>20.89</v>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>24.65</v>
+        <v>303.83</v>
       </c>
       <c r="D86">
         <v>21.1</v>
@@ -11303,7 +11303,7 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>76.34</v>
+        <v>5827.48</v>
       </c>
       <c r="D87">
         <v>19.33</v>
@@ -11395,7 +11395,7 @@
         <v>3</v>
       </c>
       <c r="C88">
-        <v>22.45</v>
+        <v>12.6</v>
       </c>
       <c r="D88">
         <v>20.47</v>
@@ -11493,7 +11493,7 @@
         <v>3</v>
       </c>
       <c r="C89">
-        <v>20.02</v>
+        <v>400.88</v>
       </c>
       <c r="D89">
         <v>21.19</v>
@@ -11591,7 +11591,7 @@
         <v>29</v>
       </c>
       <c r="C90">
-        <v>13.07</v>
+        <v>1.41</v>
       </c>
       <c r="D90">
         <v>20.5</v>
@@ -11689,7 +11689,7 @@
         <v>12</v>
       </c>
       <c r="C91">
-        <v>16</v>
+        <v>10.67</v>
       </c>
       <c r="D91">
         <v>21.17</v>
@@ -11787,7 +11787,7 @@
         <v>4</v>
       </c>
       <c r="C92">
-        <v>26.38</v>
+        <v>695.86</v>
       </c>
       <c r="D92">
         <v>20.13</v>
@@ -11885,7 +11885,7 @@
         <v>4</v>
       </c>
       <c r="C93">
-        <v>40.78</v>
+        <v>1663.13</v>
       </c>
       <c r="D93">
         <v>20.05</v>
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>12.19</v>
+        <v>24.77</v>
       </c>
       <c r="D94">
         <v>21.54</v>
@@ -12081,7 +12081,7 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>22.59</v>
+        <v>510.39</v>
       </c>
       <c r="D95">
         <v>17.26</v>
@@ -12179,7 +12179,7 @@
         <v>3</v>
       </c>
       <c r="C96">
-        <v>36.37</v>
+        <v>330.67</v>
       </c>
       <c r="D96">
         <v>18.99</v>
@@ -12277,7 +12277,7 @@
         <v>25</v>
       </c>
       <c r="C97">
-        <v>21.82</v>
+        <v>52.89</v>
       </c>
       <c r="D97">
         <v>20.96</v>
@@ -12375,7 +12375,7 @@
         <v>41</v>
       </c>
       <c r="C98">
-        <v>12.77</v>
+        <v>0.86</v>
       </c>
       <c r="D98">
         <v>16.53</v>
@@ -12473,7 +12473,7 @@
         <v>3</v>
       </c>
       <c r="C99">
-        <v>20.54</v>
+        <v>421.85</v>
       </c>
       <c r="D99">
         <v>20.35</v>
@@ -12565,7 +12565,7 @@
         <v>2</v>
       </c>
       <c r="C100">
-        <v>20.07</v>
+        <v>44.77</v>
       </c>
       <c r="D100">
         <v>21.17</v>
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>39.69</v>
+        <v>157.51</v>
       </c>
       <c r="D101">
         <v>18</v>
@@ -12761,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>51.62</v>
+        <v>666.15</v>
       </c>
       <c r="D102">
         <v>20.46</v>
@@ -12850,7 +12850,7 @@
         <v>11</v>
       </c>
       <c r="C103">
-        <v>11.9</v>
+        <v>70.83</v>
       </c>
       <c r="D103">
         <v>20.81</v>
@@ -12948,7 +12948,7 @@
         <v>14</v>
       </c>
       <c r="C104">
-        <v>37.75</v>
+        <v>1425.07</v>
       </c>
       <c r="D104">
         <v>21.12</v>
@@ -13040,7 +13040,7 @@
         <v>11</v>
       </c>
       <c r="C105">
-        <v>19.92</v>
+        <v>66.13</v>
       </c>
       <c r="D105">
         <v>21.35</v>
@@ -13138,7 +13138,7 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>11.74</v>
+        <v>68.88</v>
       </c>
       <c r="D106">
         <v>21.26</v>
@@ -13236,7 +13236,7 @@
         <v>13</v>
       </c>
       <c r="C107">
-        <v>4.46</v>
+        <v>1.05</v>
       </c>
       <c r="D107">
         <v>20.62</v>
@@ -13334,7 +13334,7 @@
         <v>2</v>
       </c>
       <c r="C108">
-        <v>4.08</v>
+        <v>0.67</v>
       </c>
       <c r="D108">
         <v>21.04</v>
@@ -13432,7 +13432,7 @@
         <v>2</v>
       </c>
       <c r="C109">
-        <v>3.27</v>
+        <v>1.53</v>
       </c>
       <c r="D109">
         <v>20.74</v>
@@ -13530,7 +13530,7 @@
         <v>11</v>
       </c>
       <c r="C110">
-        <v>3.16</v>
+        <v>0.27</v>
       </c>
       <c r="D110">
         <v>20.72</v>
@@ -13628,7 +13628,7 @@
         <v>9</v>
       </c>
       <c r="C111">
-        <v>2.49</v>
+        <v>0.62</v>
       </c>
       <c r="D111">
         <v>19.88</v>
@@ -13723,7 +13723,7 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>3.16</v>
+        <v>0.17</v>
       </c>
       <c r="D112">
         <v>20.83</v>
@@ -13821,7 +13821,7 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>0.8100000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="D113">
         <v>21.19</v>
@@ -13919,7 +13919,7 @@
         <v>5</v>
       </c>
       <c r="C114">
-        <v>3.43</v>
+        <v>0.45</v>
       </c>
       <c r="D114">
         <v>21.36</v>
@@ -14017,7 +14017,7 @@
         <v>1</v>
       </c>
       <c r="C115">
-        <v>1.04</v>
+        <v>0.27</v>
       </c>
       <c r="D115">
         <v>20.13</v>
@@ -14115,7 +14115,7 @@
         <v>4</v>
       </c>
       <c r="C116">
-        <v>3.6</v>
+        <v>0.52</v>
       </c>
       <c r="D116">
         <v>20.86</v>
@@ -14213,7 +14213,7 @@
         <v>5</v>
       </c>
       <c r="C117">
-        <v>2.06</v>
+        <v>0.47</v>
       </c>
       <c r="D117">
         <v>20.84</v>
@@ -14311,7 +14311,7 @@
         <v>6</v>
       </c>
       <c r="C118">
-        <v>8.65</v>
+        <v>1.59</v>
       </c>
       <c r="D118">
         <v>20.95</v>
@@ -14406,7 +14406,7 @@
         <v>18</v>
       </c>
       <c r="C119">
-        <v>8.17</v>
+        <v>2.02</v>
       </c>
       <c r="D119">
         <v>20.97</v>
@@ -14501,7 +14501,7 @@
         <v>10</v>
       </c>
       <c r="C120">
-        <v>7.49</v>
+        <v>1.7</v>
       </c>
       <c r="D120">
         <v>20.66</v>
@@ -14599,7 +14599,7 @@
         <v>11</v>
       </c>
       <c r="C121">
-        <v>17.12</v>
+        <v>48.85</v>
       </c>
       <c r="D121">
         <v>21.23</v>
@@ -14697,7 +14697,7 @@
         <v>7</v>
       </c>
       <c r="C122">
-        <v>9.970000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="D122">
         <v>20.64</v>
@@ -14795,7 +14795,7 @@
         <v>37</v>
       </c>
       <c r="C123">
-        <v>13.92</v>
+        <v>3.8</v>
       </c>
       <c r="D123">
         <v>20.42</v>
@@ -14893,7 +14893,7 @@
         <v>7</v>
       </c>
       <c r="C124">
-        <v>21.96</v>
+        <v>60.28</v>
       </c>
       <c r="D124">
         <v>20.65</v>
@@ -14991,7 +14991,7 @@
         <v>11</v>
       </c>
       <c r="C125">
-        <v>10.54</v>
+        <v>6.54</v>
       </c>
       <c r="D125">
         <v>20.76</v>
@@ -15089,7 +15089,7 @@
         <v>14</v>
       </c>
       <c r="C126">
-        <v>26.08</v>
+        <v>97.15000000000001</v>
       </c>
       <c r="D126">
         <v>19.8</v>
@@ -15187,7 +15187,7 @@
         <v>3</v>
       </c>
       <c r="C127">
-        <v>15.5</v>
+        <v>120.09</v>
       </c>
       <c r="D127">
         <v>21.19</v>
@@ -15285,7 +15285,7 @@
         <v>3</v>
       </c>
       <c r="C128">
-        <v>10.42</v>
+        <v>54.31</v>
       </c>
       <c r="D128">
         <v>21.34</v>
@@ -15383,7 +15383,7 @@
         <v>7</v>
       </c>
       <c r="C129">
-        <v>15.9</v>
+        <v>126.37</v>
       </c>
       <c r="D129">
         <v>20.82</v>
@@ -15481,7 +15481,7 @@
         <v>8</v>
       </c>
       <c r="C130">
-        <v>27.08</v>
+        <v>244.43</v>
       </c>
       <c r="D130">
         <v>21.07</v>
@@ -15573,7 +15573,7 @@
         <v>3</v>
       </c>
       <c r="C131">
-        <v>7.83</v>
+        <v>30.65</v>
       </c>
       <c r="D131">
         <v>21.22</v>
@@ -15751,7 +15751,7 @@
         <v>13</v>
       </c>
       <c r="C133">
-        <v>13.97</v>
+        <v>65.03</v>
       </c>
       <c r="D133">
         <v>21.81</v>
@@ -15849,7 +15849,7 @@
         <v>8</v>
       </c>
       <c r="C134">
-        <v>10.89</v>
+        <v>11.86</v>
       </c>
       <c r="D134">
         <v>20.42</v>
@@ -15947,7 +15947,7 @@
         <v>6</v>
       </c>
       <c r="C135">
-        <v>10.34</v>
+        <v>5.94</v>
       </c>
       <c r="D135">
         <v>20.85</v>
@@ -16045,7 +16045,7 @@
         <v>15</v>
       </c>
       <c r="C136">
-        <v>18.64</v>
+        <v>28.96</v>
       </c>
       <c r="D136">
         <v>20.28</v>
@@ -16143,7 +16143,7 @@
         <v>13</v>
       </c>
       <c r="C137">
-        <v>13.35</v>
+        <v>11.88</v>
       </c>
       <c r="D137">
         <v>20.38</v>
@@ -16336,7 +16336,7 @@
         <v>24</v>
       </c>
       <c r="C139">
-        <v>14.16</v>
+        <v>2.75</v>
       </c>
       <c r="D139">
         <v>20.38</v>
@@ -16434,7 +16434,7 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>9.82</v>
+        <v>24.1</v>
       </c>
       <c r="D140">
         <v>20.78</v>
@@ -16532,7 +16532,7 @@
         <v>2</v>
       </c>
       <c r="C141">
-        <v>8.51</v>
+        <v>10.34</v>
       </c>
       <c r="D141">
         <v>20.21</v>
@@ -16630,7 +16630,7 @@
         <v>13</v>
       </c>
       <c r="C142">
-        <v>13.33</v>
+        <v>13.67</v>
       </c>
       <c r="D142">
         <v>20.44</v>
@@ -16728,7 +16728,7 @@
         <v>4</v>
       </c>
       <c r="C143">
-        <v>6.22</v>
+        <v>3.87</v>
       </c>
       <c r="D143">
         <v>20.95</v>
@@ -16826,7 +16826,7 @@
         <v>1</v>
       </c>
       <c r="C144">
-        <v>9.880000000000001</v>
+        <v>5.14</v>
       </c>
       <c r="D144">
         <v>20.93</v>
@@ -16924,7 +16924,7 @@
         <v>38</v>
       </c>
       <c r="C145">
-        <v>13.41</v>
+        <v>2.28</v>
       </c>
       <c r="D145">
         <v>20.56</v>
@@ -17022,7 +17022,7 @@
         <v>19</v>
       </c>
       <c r="C146">
-        <v>9.93</v>
+        <v>0.59</v>
       </c>
       <c r="D146">
         <v>20.51</v>
@@ -17120,7 +17120,7 @@
         <v>1</v>
       </c>
       <c r="C147">
-        <v>8.359999999999999</v>
+        <v>17.46</v>
       </c>
       <c r="D147">
         <v>20.17</v>
@@ -17218,7 +17218,7 @@
         <v>5</v>
       </c>
       <c r="C148">
-        <v>7.76</v>
+        <v>30.09</v>
       </c>
       <c r="D148">
         <v>20.74</v>
@@ -17316,7 +17316,7 @@
         <v>11</v>
       </c>
       <c r="C149">
-        <v>11.03</v>
+        <v>7.16</v>
       </c>
       <c r="D149">
         <v>20.73</v>
@@ -17414,7 +17414,7 @@
         <v>6</v>
       </c>
       <c r="C150">
-        <v>24.4</v>
+        <v>198.45</v>
       </c>
       <c r="D150">
         <v>20.73</v>
@@ -17512,7 +17512,7 @@
         <v>0</v>
       </c>
       <c r="C151">
-        <v>7.75</v>
+        <v>12.01</v>
       </c>
       <c r="D151">
         <v>21.03</v>
@@ -17610,7 +17610,7 @@
         <v>51</v>
       </c>
       <c r="C152">
-        <v>16.46</v>
+        <v>6.02</v>
       </c>
       <c r="D152">
         <v>20.52</v>
@@ -17708,7 +17708,7 @@
         <v>9</v>
       </c>
       <c r="C153">
-        <v>9.81</v>
+        <v>24.06</v>
       </c>
       <c r="D153">
         <v>20.38</v>
@@ -17803,7 +17803,7 @@
         <v>5</v>
       </c>
       <c r="C154">
-        <v>6.76</v>
+        <v>5.71</v>
       </c>
       <c r="D154">
         <v>20.54</v>
@@ -17901,7 +17901,7 @@
         <v>5</v>
       </c>
       <c r="C155">
-        <v>21.77</v>
+        <v>24.94</v>
       </c>
       <c r="D155">
         <v>19.91</v>
@@ -17999,7 +17999,7 @@
         <v>11</v>
       </c>
       <c r="C156">
-        <v>13.39</v>
+        <v>10.54</v>
       </c>
       <c r="D156">
         <v>19.88</v>
@@ -18097,7 +18097,7 @@
         <v>2</v>
       </c>
       <c r="C157">
-        <v>8.49</v>
+        <v>10.29</v>
       </c>
       <c r="D157">
         <v>20.22</v>
@@ -18195,7 +18195,7 @@
         <v>12</v>
       </c>
       <c r="C158">
-        <v>12.46</v>
+        <v>6.21</v>
       </c>
       <c r="D158">
         <v>20.91</v>
@@ -18293,7 +18293,7 @@
         <v>7</v>
       </c>
       <c r="C159">
-        <v>11.34</v>
+        <v>18.37</v>
       </c>
       <c r="D159">
         <v>20.04</v>
@@ -18391,7 +18391,7 @@
         <v>14</v>
       </c>
       <c r="C160">
-        <v>10.77</v>
+        <v>7.25</v>
       </c>
       <c r="D160">
         <v>20.17</v>
@@ -18489,7 +18489,7 @@
         <v>3</v>
       </c>
       <c r="C161">
-        <v>4.75</v>
+        <v>22.59</v>
       </c>
       <c r="D161">
         <v>20.89</v>
@@ -18587,7 +18587,7 @@
         <v>13</v>
       </c>
       <c r="C162">
-        <v>12.43</v>
+        <v>19.32</v>
       </c>
       <c r="D162">
         <v>20.35</v>
@@ -18780,7 +18780,7 @@
         <v>8</v>
       </c>
       <c r="C164">
-        <v>13.05</v>
+        <v>18.93</v>
       </c>
       <c r="D164">
         <v>20.6</v>
@@ -18878,7 +18878,7 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>9.289999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="D165">
         <v>20.58</v>
@@ -18976,7 +18976,7 @@
         <v>1</v>
       </c>
       <c r="C166">
-        <v>6.6</v>
+        <v>10.89</v>
       </c>
       <c r="D166">
         <v>21.35</v>
@@ -19071,7 +19071,7 @@
         <v>1</v>
       </c>
       <c r="C167">
-        <v>4.07</v>
+        <v>5.52</v>
       </c>
       <c r="D167">
         <v>20.72</v>
@@ -19169,7 +19169,7 @@
         <v>1</v>
       </c>
       <c r="C168">
-        <v>7.16</v>
+        <v>5.69</v>
       </c>
       <c r="D168">
         <v>21.38</v>
@@ -19267,7 +19267,7 @@
         <v>1</v>
       </c>
       <c r="C169">
-        <v>4.49</v>
+        <v>10.09</v>
       </c>
       <c r="D169">
         <v>21.51</v>
@@ -19365,7 +19365,7 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>2.16</v>
+        <v>4.67</v>
       </c>
       <c r="D170">
         <v>20.94</v>
@@ -19460,7 +19460,7 @@
         <v>1</v>
       </c>
       <c r="C171">
-        <v>12.29</v>
+        <v>18.88</v>
       </c>
       <c r="D171">
         <v>21.11</v>
@@ -19558,7 +19558,7 @@
         <v>3</v>
       </c>
       <c r="C172">
-        <v>15.17</v>
+        <v>57.54</v>
       </c>
       <c r="D172">
         <v>20.56</v>
@@ -19656,7 +19656,7 @@
         <v>4</v>
       </c>
       <c r="C173">
-        <v>6.58</v>
+        <v>14.43</v>
       </c>
       <c r="D173">
         <v>19.73</v>
@@ -19754,7 +19754,7 @@
         <v>3</v>
       </c>
       <c r="C174">
-        <v>8.33</v>
+        <v>13.87</v>
       </c>
       <c r="D174">
         <v>20.4</v>
@@ -19852,7 +19852,7 @@
         <v>8</v>
       </c>
       <c r="C175">
-        <v>5.33</v>
+        <v>28.41</v>
       </c>
       <c r="D175">
         <v>18.87</v>
@@ -19950,7 +19950,7 @@
         <v>3</v>
       </c>
       <c r="C176">
-        <v>10.31</v>
+        <v>53.17</v>
       </c>
       <c r="D176">
         <v>19.99</v>
@@ -20048,7 +20048,7 @@
         <v>3</v>
       </c>
       <c r="C177">
-        <v>10.81</v>
+        <v>23.37</v>
       </c>
       <c r="D177">
         <v>19.68</v>
@@ -20146,7 +20146,7 @@
         <v>3</v>
       </c>
       <c r="C178">
-        <v>10.19</v>
+        <v>51.92</v>
       </c>
       <c r="D178">
         <v>20.35</v>
@@ -20244,7 +20244,7 @@
         <v>11</v>
       </c>
       <c r="C179">
-        <v>9.630000000000001</v>
+        <v>30.92</v>
       </c>
       <c r="D179">
         <v>19.14</v>
@@ -20342,7 +20342,7 @@
         <v>5</v>
       </c>
       <c r="C180">
-        <v>10.14</v>
+        <v>34.29</v>
       </c>
       <c r="D180">
         <v>20.24</v>
@@ -20440,7 +20440,7 @@
         <v>13</v>
       </c>
       <c r="C181">
-        <v>15.87</v>
+        <v>27.98</v>
       </c>
       <c r="D181">
         <v>19.97</v>
@@ -20538,7 +20538,7 @@
         <v>18</v>
       </c>
       <c r="C182">
-        <v>6.67</v>
+        <v>11.12</v>
       </c>
       <c r="D182">
         <v>19.05</v>
@@ -20636,7 +20636,7 @@
         <v>4</v>
       </c>
       <c r="C183">
-        <v>7.62</v>
+        <v>58.05</v>
       </c>
       <c r="D183">
         <v>16.82</v>
@@ -20734,7 +20734,7 @@
         <v>3</v>
       </c>
       <c r="C184">
-        <v>6.62</v>
+        <v>43.83</v>
       </c>
       <c r="D184">
         <v>20.17</v>
@@ -20832,7 +20832,7 @@
         <v>7</v>
       </c>
       <c r="C185">
-        <v>18.81</v>
+        <v>117.91</v>
       </c>
       <c r="D185">
         <v>19.49</v>
@@ -20930,7 +20930,7 @@
         <v>4</v>
       </c>
       <c r="C186">
-        <v>11.34</v>
+        <v>64.31999999999999</v>
       </c>
       <c r="D186">
         <v>20.26</v>
@@ -21028,7 +21028,7 @@
         <v>5</v>
       </c>
       <c r="C187">
-        <v>10.61</v>
+        <v>22.51</v>
       </c>
       <c r="D187">
         <v>20.43</v>
@@ -21126,7 +21126,7 @@
         <v>1</v>
       </c>
       <c r="C188">
-        <v>8</v>
+        <v>63.98</v>
       </c>
       <c r="D188">
         <v>21.72</v>
@@ -21224,7 +21224,7 @@
         <v>3</v>
       </c>
       <c r="C189">
-        <v>10.56</v>
+        <v>111.5</v>
       </c>
       <c r="D189">
         <v>20.36</v>
@@ -21322,7 +21322,7 @@
         <v>0</v>
       </c>
       <c r="C190">
-        <v>15.61</v>
+        <v>121.84</v>
       </c>
       <c r="D190">
         <v>19.78</v>
@@ -21420,7 +21420,7 @@
         <v>8</v>
       </c>
       <c r="C191">
-        <v>9.619999999999999</v>
+        <v>46.27</v>
       </c>
       <c r="D191">
         <v>20.5</v>
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="C195">
-        <v>10.63</v>
+        <v>22.61</v>
       </c>
       <c r="D195">
         <v>19.4</v>
@@ -21889,7 +21889,7 @@
         <v>4</v>
       </c>
       <c r="C196">
-        <v>8.640000000000001</v>
+        <v>74.61</v>
       </c>
       <c r="D196">
         <v>20.36</v>
@@ -21987,7 +21987,7 @@
         <v>9</v>
       </c>
       <c r="C197">
-        <v>11.81</v>
+        <v>69.72</v>
       </c>
       <c r="D197">
         <v>20.06</v>
@@ -22085,7 +22085,7 @@
         <v>3</v>
       </c>
       <c r="C198">
-        <v>10.68</v>
+        <v>114.08</v>
       </c>
       <c r="D198">
         <v>20.37</v>
@@ -22177,7 +22177,7 @@
         <v>1</v>
       </c>
       <c r="C199">
-        <v>5.18</v>
+        <v>13.43</v>
       </c>
       <c r="D199">
         <v>20.86</v>
@@ -22358,7 +22358,7 @@
         <v>15</v>
       </c>
       <c r="C201">
-        <v>14.35</v>
+        <v>4.68</v>
       </c>
       <c r="D201">
         <v>19.47</v>
@@ -22551,7 +22551,7 @@
         <v>24</v>
       </c>
       <c r="C203">
-        <v>15.19</v>
+        <v>7.96</v>
       </c>
       <c r="D203">
         <v>19.78</v>
@@ -22649,7 +22649,7 @@
         <v>10</v>
       </c>
       <c r="C204">
-        <v>15.66</v>
+        <v>40.87</v>
       </c>
       <c r="D204">
         <v>19.53</v>
@@ -22747,7 +22747,7 @@
         <v>3</v>
       </c>
       <c r="C205">
-        <v>8.210000000000001</v>
+        <v>22.47</v>
       </c>
       <c r="D205">
         <v>20.26</v>
@@ -22845,7 +22845,7 @@
         <v>2</v>
       </c>
       <c r="C206">
-        <v>10.23</v>
+        <v>26.17</v>
       </c>
       <c r="D206">
         <v>19.5</v>
@@ -22943,7 +22943,7 @@
         <v>8</v>
       </c>
       <c r="C207">
-        <v>13.03</v>
+        <v>84.86</v>
       </c>
       <c r="D207">
         <v>19.85</v>
@@ -23041,7 +23041,7 @@
         <v>3</v>
       </c>
       <c r="C208">
-        <v>17.41</v>
+        <v>101.06</v>
       </c>
       <c r="D208">
         <v>18.99</v>
@@ -23139,7 +23139,7 @@
         <v>3</v>
       </c>
       <c r="C209">
-        <v>5.27</v>
+        <v>13.89</v>
       </c>
       <c r="D209">
         <v>20.16</v>
@@ -23237,7 +23237,7 @@
         <v>13</v>
       </c>
       <c r="C210">
-        <v>10.74</v>
+        <v>19.22</v>
       </c>
       <c r="D210">
         <v>19.38</v>
@@ -23335,7 +23335,7 @@
         <v>21</v>
       </c>
       <c r="C211">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="D211">
         <v>19.48</v>
@@ -23433,7 +23433,7 @@
         <v>9</v>
       </c>
       <c r="C212">
-        <v>9.220000000000001</v>
+        <v>84.98</v>
       </c>
       <c r="D212">
         <v>20.05</v>
@@ -23531,7 +23531,7 @@
         <v>8</v>
       </c>
       <c r="C213">
-        <v>8.52</v>
+        <v>72.58</v>
       </c>
       <c r="D213">
         <v>20.12</v>
@@ -23623,7 +23623,7 @@
         <v>4</v>
       </c>
       <c r="C214">
-        <v>7.75</v>
+        <v>60.05</v>
       </c>
       <c r="D214">
         <v>19.7</v>
@@ -23721,7 +23721,7 @@
         <v>9</v>
       </c>
       <c r="C215">
-        <v>9.140000000000001</v>
+        <v>16.71</v>
       </c>
       <c r="D215">
         <v>19.23</v>
@@ -23908,7 +23908,7 @@
         <v>3</v>
       </c>
       <c r="C217">
-        <v>8.91</v>
+        <v>5.67</v>
       </c>
       <c r="D217">
         <v>20.07</v>
@@ -24006,7 +24006,7 @@
         <v>3</v>
       </c>
       <c r="C218">
-        <v>5.23</v>
+        <v>27.34</v>
       </c>
       <c r="D218">
         <v>19.63</v>
@@ -24104,7 +24104,7 @@
         <v>5</v>
       </c>
       <c r="C219">
-        <v>3.5</v>
+        <v>12.24</v>
       </c>
       <c r="D219">
         <v>20.14</v>
@@ -24202,7 +24202,7 @@
         <v>40</v>
       </c>
       <c r="C220">
-        <v>14.93</v>
+        <v>13.11</v>
       </c>
       <c r="D220">
         <v>19.43</v>
@@ -24484,7 +24484,7 @@
         <v>6</v>
       </c>
       <c r="C223">
-        <v>5.34</v>
+        <v>14.26</v>
       </c>
       <c r="D223">
         <v>20.43</v>
@@ -24576,7 +24576,7 @@
         <v>1</v>
       </c>
       <c r="C224">
-        <v>23.95</v>
+        <v>114.73</v>
       </c>
       <c r="D224">
         <v>20.33</v>
@@ -24674,7 +24674,7 @@
         <v>4</v>
       </c>
       <c r="C225">
-        <v>12.69</v>
+        <v>23.01</v>
       </c>
       <c r="D225">
         <v>19.73</v>
@@ -24772,7 +24772,7 @@
         <v>4</v>
       </c>
       <c r="C226">
-        <v>10</v>
+        <v>25.01</v>
       </c>
       <c r="D226">
         <v>20.81</v>
@@ -24870,7 +24870,7 @@
         <v>3</v>
       </c>
       <c r="C227">
-        <v>21.9</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D227">
         <v>20.91</v>
@@ -24968,7 +24968,7 @@
         <v>1</v>
       </c>
       <c r="C228">
-        <v>32.49</v>
+        <v>131.96</v>
       </c>
       <c r="D228">
         <v>21.1</v>
@@ -25066,7 +25066,7 @@
         <v>3</v>
       </c>
       <c r="C229">
-        <v>19.17</v>
+        <v>91.87</v>
       </c>
       <c r="D229">
         <v>20.02</v>
@@ -25164,7 +25164,7 @@
         <v>1</v>
       </c>
       <c r="C230">
-        <v>13.27</v>
+        <v>176.04</v>
       </c>
       <c r="D230">
         <v>21.11</v>
@@ -25262,7 +25262,7 @@
         <v>5</v>
       </c>
       <c r="C231">
-        <v>11.06</v>
+        <v>17.48</v>
       </c>
       <c r="D231">
         <v>20.91</v>
@@ -25360,7 +25360,7 @@
         <v>6</v>
       </c>
       <c r="C232">
-        <v>9.800000000000001</v>
+        <v>24.01</v>
       </c>
       <c r="D232">
         <v>20.96</v>
@@ -25458,7 +25458,7 @@
         <v>2</v>
       </c>
       <c r="C233">
-        <v>16.33</v>
+        <v>24.25</v>
       </c>
       <c r="D233">
         <v>20.44</v>
@@ -25556,7 +25556,7 @@
         <v>1</v>
       </c>
       <c r="C234">
-        <v>5.46</v>
+        <v>29.8</v>
       </c>
       <c r="D234">
         <v>21.11</v>
@@ -25654,7 +25654,7 @@
         <v>3</v>
       </c>
       <c r="C235">
-        <v>16.8</v>
+        <v>94.11</v>
       </c>
       <c r="D235">
         <v>21.33</v>
@@ -25746,7 +25746,7 @@
         <v>1</v>
       </c>
       <c r="C236">
-        <v>16.65</v>
+        <v>277.18</v>
       </c>
       <c r="D236">
         <v>20.83</v>
@@ -25844,7 +25844,7 @@
         <v>8</v>
       </c>
       <c r="C237">
-        <v>9.4</v>
+        <v>44.18</v>
       </c>
       <c r="D237">
         <v>20.19</v>
@@ -25942,7 +25942,7 @@
         <v>7</v>
       </c>
       <c r="C238">
-        <v>18.82</v>
+        <v>35.41</v>
       </c>
       <c r="D238">
         <v>20.84</v>
@@ -26040,7 +26040,7 @@
         <v>7</v>
       </c>
       <c r="C239">
-        <v>10.57</v>
+        <v>0.75</v>
       </c>
       <c r="D239">
         <v>20.69</v>
@@ -26138,7 +26138,7 @@
         <v>2</v>
       </c>
       <c r="C240">
-        <v>9.279999999999999</v>
+        <v>14.35</v>
       </c>
       <c r="D240">
         <v>21.28</v>
@@ -26236,7 +26236,7 @@
         <v>3</v>
       </c>
       <c r="C241">
-        <v>29.74</v>
+        <v>147.39</v>
       </c>
       <c r="D241">
         <v>21.45</v>
@@ -26334,7 +26334,7 @@
         <v>1</v>
       </c>
       <c r="C242">
-        <v>19.15</v>
+        <v>40.76</v>
       </c>
       <c r="D242">
         <v>20.75</v>
@@ -26432,7 +26432,7 @@
         <v>5</v>
       </c>
       <c r="C243">
-        <v>7.22</v>
+        <v>26.08</v>
       </c>
       <c r="D243">
         <v>20.69</v>
@@ -26530,7 +26530,7 @@
         <v>15</v>
       </c>
       <c r="C244">
-        <v>14.63</v>
+        <v>8.56</v>
       </c>
       <c r="D244">
         <v>20.46</v>
@@ -26628,7 +26628,7 @@
         <v>2</v>
       </c>
       <c r="C245">
-        <v>7.64</v>
+        <v>7.3</v>
       </c>
       <c r="D245">
         <v>20.92</v>
@@ -26726,7 +26726,7 @@
         <v>5</v>
       </c>
       <c r="C246">
-        <v>12</v>
+        <v>35.99</v>
       </c>
       <c r="D246">
         <v>20.77</v>
@@ -26824,7 +26824,7 @@
         <v>16</v>
       </c>
       <c r="C247">
-        <v>9.01</v>
+        <v>4.06</v>
       </c>
       <c r="D247">
         <v>20.65</v>
@@ -26922,7 +26922,7 @@
         <v>5</v>
       </c>
       <c r="C248">
-        <v>16.73</v>
+        <v>23.33</v>
       </c>
       <c r="D248">
         <v>20.37</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="C249">
-        <v>14.27</v>
+        <v>50.9</v>
       </c>
       <c r="D249">
         <v>20.98</v>
@@ -27118,7 +27118,7 @@
         <v>6</v>
       </c>
       <c r="C250">
-        <v>12.77</v>
+        <v>14.82</v>
       </c>
       <c r="D250">
         <v>20.53</v>
@@ -27216,7 +27216,7 @@
         <v>1</v>
       </c>
       <c r="C251">
-        <v>9.58</v>
+        <v>45.87</v>
       </c>
       <c r="D251">
         <v>21.52</v>
@@ -27314,7 +27314,7 @@
         <v>0</v>
       </c>
       <c r="C252">
-        <v>25.03</v>
+        <v>626.53</v>
       </c>
       <c r="D252">
         <v>21.19</v>
@@ -27406,7 +27406,7 @@
         <v>3</v>
       </c>
       <c r="C253">
-        <v>17.45</v>
+        <v>43.49</v>
       </c>
       <c r="D253">
         <v>20.74</v>
@@ -27504,7 +27504,7 @@
         <v>1</v>
       </c>
       <c r="C254">
-        <v>20.89</v>
+        <v>14.08</v>
       </c>
       <c r="D254">
         <v>20.89</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="C255">
-        <v>10.37</v>
+        <v>107.58</v>
       </c>
       <c r="D255">
         <v>20.79</v>
@@ -27700,7 +27700,7 @@
         <v>12</v>
       </c>
       <c r="C256">
-        <v>10.47</v>
+        <v>1.52</v>
       </c>
       <c r="D256">
         <v>20.49</v>
@@ -27798,7 +27798,7 @@
         <v>11</v>
       </c>
       <c r="C257">
-        <v>9.52</v>
+        <v>1.39</v>
       </c>
       <c r="D257">
         <v>20.62</v>
@@ -27896,7 +27896,7 @@
         <v>1</v>
       </c>
       <c r="C258">
-        <v>9.07</v>
+        <v>82.22</v>
       </c>
       <c r="D258">
         <v>21.17</v>
@@ -27994,7 +27994,7 @@
         <v>11</v>
       </c>
       <c r="C259">
-        <v>9.24</v>
+        <v>1.64</v>
       </c>
       <c r="D259">
         <v>20.52</v>
@@ -28092,7 +28092,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>16.78</v>
+        <v>281.5</v>
       </c>
       <c r="D260">
         <v>21.04</v>
@@ -28190,7 +28190,7 @@
         <v>4</v>
       </c>
       <c r="C261">
-        <v>17.03</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="D261">
         <v>20.54</v>
@@ -28288,7 +28288,7 @@
         <v>1</v>
       </c>
       <c r="C262">
-        <v>19.21</v>
+        <v>369.07</v>
       </c>
       <c r="D262">
         <v>21.14</v>
@@ -28380,7 +28380,7 @@
         <v>5</v>
       </c>
       <c r="C263">
-        <v>21.24</v>
+        <v>112.79</v>
       </c>
       <c r="D263">
         <v>20.02</v>
@@ -28478,7 +28478,7 @@
         <v>3</v>
       </c>
       <c r="C264">
-        <v>19.88</v>
+        <v>98.8</v>
       </c>
       <c r="D264">
         <v>20.64</v>
@@ -28576,7 +28576,7 @@
         <v>3</v>
       </c>
       <c r="C265">
-        <v>13.37</v>
+        <v>59.6</v>
       </c>
       <c r="D265">
         <v>21.3</v>
@@ -28674,7 +28674,7 @@
         <v>1</v>
       </c>
       <c r="C266">
-        <v>6.67</v>
+        <v>22.23</v>
       </c>
       <c r="D266">
         <v>20.69</v>
@@ -28772,7 +28772,7 @@
         <v>6</v>
       </c>
       <c r="C267">
-        <v>8.57</v>
+        <v>0.59</v>
       </c>
       <c r="D267">
         <v>20.65</v>
@@ -28870,7 +28870,7 @@
         <v>2</v>
       </c>
       <c r="C268">
-        <v>15.8</v>
+        <v>83.19</v>
       </c>
       <c r="D268">
         <v>20.51</v>
@@ -28968,7 +28968,7 @@
         <v>9</v>
       </c>
       <c r="C269">
-        <v>19.84</v>
+        <v>30.28</v>
       </c>
       <c r="D269">
         <v>20.55</v>
@@ -29066,7 +29066,7 @@
         <v>2</v>
       </c>
       <c r="C270">
-        <v>5.93</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D270">
         <v>20.29</v>
@@ -29164,7 +29164,7 @@
         <v>10</v>
       </c>
       <c r="C271">
-        <v>6.57</v>
+        <v>3.92</v>
       </c>
       <c r="D271">
         <v>20.65</v>
@@ -29262,7 +29262,7 @@
         <v>5</v>
       </c>
       <c r="C272">
-        <v>8.130000000000001</v>
+        <v>16.52</v>
       </c>
       <c r="D272">
         <v>20.64</v>
@@ -29360,7 +29360,7 @@
         <v>1</v>
       </c>
       <c r="C273">
-        <v>8.58</v>
+        <v>4.91</v>
       </c>
       <c r="D273">
         <v>20.23</v>
@@ -29458,7 +29458,7 @@
         <v>3</v>
       </c>
       <c r="C274">
-        <v>6.38</v>
+        <v>20.34</v>
       </c>
       <c r="D274">
         <v>20.18</v>
@@ -29556,7 +29556,7 @@
         <v>2</v>
       </c>
       <c r="C275">
-        <v>4.13</v>
+        <v>5.68</v>
       </c>
       <c r="D275">
         <v>20.36</v>
@@ -29654,7 +29654,7 @@
         <v>4</v>
       </c>
       <c r="C276">
-        <v>5.92</v>
+        <v>1.13</v>
       </c>
       <c r="D276">
         <v>20.57</v>
@@ -29752,7 +29752,7 @@
         <v>4</v>
       </c>
       <c r="C277">
-        <v>15.8</v>
+        <v>14.69</v>
       </c>
       <c r="D277">
         <v>20.28</v>
@@ -29850,7 +29850,7 @@
         <v>14</v>
       </c>
       <c r="C278">
-        <v>17.34</v>
+        <v>60.13</v>
       </c>
       <c r="D278">
         <v>20.37</v>
@@ -29948,7 +29948,7 @@
         <v>1</v>
       </c>
       <c r="C279">
-        <v>4.8</v>
+        <v>1.65</v>
       </c>
       <c r="D279">
         <v>20.35</v>
@@ -30043,7 +30043,7 @@
         <v>5</v>
       </c>
       <c r="C280">
-        <v>4.87</v>
+        <v>11.86</v>
       </c>
       <c r="D280">
         <v>19.12</v>
@@ -30141,7 +30141,7 @@
         <v>12</v>
       </c>
       <c r="C281">
-        <v>9.27</v>
+        <v>5.37</v>
       </c>
       <c r="D281">
         <v>20.08</v>
@@ -30239,7 +30239,7 @@
         <v>3</v>
       </c>
       <c r="C282">
-        <v>6.45</v>
+        <v>20.8</v>
       </c>
       <c r="D282">
         <v>20.49</v>
@@ -30337,7 +30337,7 @@
         <v>5</v>
       </c>
       <c r="C283">
-        <v>6.7</v>
+        <v>22.43</v>
       </c>
       <c r="D283">
         <v>20.95</v>
@@ -30435,7 +30435,7 @@
         <v>5</v>
       </c>
       <c r="C284">
-        <v>2.57</v>
+        <v>0.37</v>
       </c>
       <c r="D284">
         <v>20.05</v>
@@ -30533,7 +30533,7 @@
         <v>21</v>
       </c>
       <c r="C285">
-        <v>5.63</v>
+        <v>0.34</v>
       </c>
       <c r="D285">
         <v>20.54</v>
@@ -30631,7 +30631,7 @@
         <v>12</v>
       </c>
       <c r="C286">
-        <v>5.78</v>
+        <v>3.71</v>
       </c>
       <c r="D286">
         <v>19.9</v>
@@ -30729,7 +30729,7 @@
         <v>3</v>
       </c>
       <c r="C287">
-        <v>6.5</v>
+        <v>14.09</v>
       </c>
       <c r="D287">
         <v>19.9</v>
@@ -30827,7 +30827,7 @@
         <v>5</v>
       </c>
       <c r="C288">
-        <v>5.67</v>
+        <v>3.57</v>
       </c>
       <c r="D288">
         <v>19.76</v>
@@ -30922,7 +30922,7 @@
         <v>15</v>
       </c>
       <c r="C289">
-        <v>15.96</v>
+        <v>18.19</v>
       </c>
       <c r="D289">
         <v>20.29</v>
@@ -31020,7 +31020,7 @@
         <v>3</v>
       </c>
       <c r="C290">
-        <v>5.24</v>
+        <v>6.87</v>
       </c>
       <c r="D290">
         <v>20.01</v>
@@ -31118,7 +31118,7 @@
         <v>4</v>
       </c>
       <c r="C291">
-        <v>13.15</v>
+        <v>19.21</v>
       </c>
       <c r="D291">
         <v>19.94</v>
@@ -31216,7 +31216,7 @@
         <v>5</v>
       </c>
       <c r="C292">
-        <v>6.65</v>
+        <v>4.02</v>
       </c>
       <c r="D292">
         <v>20.06</v>
@@ -31314,7 +31314,7 @@
         <v>3</v>
       </c>
       <c r="C293">
-        <v>8.279999999999999</v>
+        <v>13.71</v>
       </c>
       <c r="D293">
         <v>20.35</v>
@@ -31412,7 +31412,7 @@
         <v>1</v>
       </c>
       <c r="C294">
-        <v>3.08</v>
+        <v>9.48</v>
       </c>
       <c r="D294">
         <v>20.02</v>
@@ -31504,7 +31504,7 @@
         <v>2</v>
       </c>
       <c r="C295">
-        <v>3.47</v>
+        <v>0.41</v>
       </c>
       <c r="D295">
         <v>20.84</v>
@@ -31602,7 +31602,7 @@
         <v>10</v>
       </c>
       <c r="C296">
-        <v>4.11</v>
+        <v>0.38</v>
       </c>
       <c r="D296">
         <v>20.35</v>
@@ -31700,7 +31700,7 @@
         <v>4</v>
       </c>
       <c r="C297">
-        <v>11.3</v>
+        <v>21.29</v>
       </c>
       <c r="D297">
         <v>20.03</v>
@@ -31893,7 +31893,7 @@
         <v>1</v>
       </c>
       <c r="C299">
-        <v>15.52</v>
+        <v>21.9</v>
       </c>
       <c r="D299">
         <v>20.45</v>
@@ -31991,7 +31991,7 @@
         <v>5</v>
       </c>
       <c r="C300">
-        <v>5.54</v>
+        <v>15.34</v>
       </c>
       <c r="D300">
         <v>20.29</v>
@@ -32089,7 +32089,7 @@
         <v>3</v>
       </c>
       <c r="C301">
-        <v>3.41</v>
+        <v>3.88</v>
       </c>
       <c r="D301">
         <v>19.94</v>
@@ -32276,7 +32276,7 @@
         <v>12</v>
       </c>
       <c r="C303">
-        <v>33.9</v>
+        <v>229.81</v>
       </c>
       <c r="D303">
         <v>20.44</v>
@@ -32374,7 +32374,7 @@
         <v>0</v>
       </c>
       <c r="C304">
-        <v>6.31</v>
+        <v>4.42</v>
       </c>
       <c r="D304">
         <v>19.6</v>
@@ -32472,7 +32472,7 @@
         <v>8</v>
       </c>
       <c r="C305">
-        <v>6.96</v>
+        <v>24.23</v>
       </c>
       <c r="D305">
         <v>20.43</v>
@@ -32570,7 +32570,7 @@
         <v>12</v>
       </c>
       <c r="C306">
-        <v>21.26</v>
+        <v>150.67</v>
       </c>
       <c r="D306">
         <v>20.2</v>
@@ -32668,7 +32668,7 @@
         <v>6</v>
       </c>
       <c r="C307">
-        <v>7.23</v>
+        <v>1.38</v>
       </c>
       <c r="D307">
         <v>20.41</v>
@@ -32766,7 +32766,7 @@
         <v>7</v>
       </c>
       <c r="C308">
-        <v>7.05</v>
+        <v>16.57</v>
       </c>
       <c r="D308">
         <v>19.7</v>
@@ -32864,7 +32864,7 @@
         <v>3</v>
       </c>
       <c r="C309">
-        <v>3.8</v>
+        <v>3.61</v>
       </c>
       <c r="D309">
         <v>20.08</v>
@@ -32959,7 +32959,7 @@
         <v>5</v>
       </c>
       <c r="C310">
-        <v>6.09</v>
+        <v>9.27</v>
       </c>
       <c r="D310">
         <v>19.75</v>
@@ -33057,7 +33057,7 @@
         <v>5</v>
       </c>
       <c r="C311">
-        <v>5.15</v>
+        <v>8.85</v>
       </c>
       <c r="D311">
         <v>19.23</v>
@@ -33155,7 +33155,7 @@
         <v>11</v>
       </c>
       <c r="C312">
-        <v>6.22</v>
+        <v>19.33</v>
       </c>
       <c r="D312">
         <v>21.36</v>
@@ -33253,7 +33253,7 @@
         <v>4</v>
       </c>
       <c r="C313">
-        <v>13.76</v>
+        <v>13.53</v>
       </c>
       <c r="D313">
         <v>20.36</v>
@@ -33351,7 +33351,7 @@
         <v>6</v>
       </c>
       <c r="C314">
-        <v>15.4</v>
+        <v>39.53</v>
       </c>
       <c r="D314">
         <v>20.03</v>
@@ -33449,7 +33449,7 @@
         <v>6</v>
       </c>
       <c r="C315">
-        <v>7.04</v>
+        <v>2.61</v>
       </c>
       <c r="D315">
         <v>20.67</v>
@@ -33547,7 +33547,7 @@
         <v>6</v>
       </c>
       <c r="C316">
-        <v>8.73</v>
+        <v>19.04</v>
       </c>
       <c r="D316">
         <v>20.29</v>
@@ -33645,7 +33645,7 @@
         <v>20</v>
       </c>
       <c r="C317">
-        <v>7.82</v>
+        <v>1.15</v>
       </c>
       <c r="D317">
         <v>20.71</v>
@@ -33743,7 +33743,7 @@
         <v>5</v>
       </c>
       <c r="C318">
-        <v>10.74</v>
+        <v>1.19</v>
       </c>
       <c r="D318">
         <v>19.79</v>
@@ -33841,7 +33841,7 @@
         <v>4</v>
       </c>
       <c r="C319">
-        <v>5.12</v>
+        <v>3.28</v>
       </c>
       <c r="D319">
         <v>20.75</v>
@@ -33939,7 +33939,7 @@
         <v>6</v>
       </c>
       <c r="C320">
-        <v>6.57</v>
+        <v>1.27</v>
       </c>
       <c r="D320">
         <v>20.47</v>
@@ -34037,7 +34037,7 @@
         <v>3</v>
       </c>
       <c r="C321">
-        <v>3.95</v>
+        <v>7.81</v>
       </c>
       <c r="D321">
         <v>20.73</v>
@@ -34135,7 +34135,7 @@
         <v>5</v>
       </c>
       <c r="C322">
-        <v>6.87</v>
+        <v>2.62</v>
       </c>
       <c r="D322">
         <v>19.97</v>
@@ -34233,7 +34233,7 @@
         <v>6</v>
       </c>
       <c r="C323">
-        <v>7.63</v>
+        <v>1.39</v>
       </c>
       <c r="D323">
         <v>20.22</v>
@@ -34331,7 +34331,7 @@
         <v>3</v>
       </c>
       <c r="C324">
-        <v>14.63</v>
+        <v>107.02</v>
       </c>
       <c r="D324">
         <v>20.64</v>
@@ -34429,7 +34429,7 @@
         <v>0</v>
       </c>
       <c r="C325">
-        <v>6.67</v>
+        <v>44.49</v>
       </c>
       <c r="D325">
         <v>20.08</v>
@@ -34527,7 +34527,7 @@
         <v>6</v>
       </c>
       <c r="C326">
-        <v>4.84</v>
+        <v>23.4</v>
       </c>
       <c r="D326">
         <v>20.03</v>
@@ -34625,7 +34625,7 @@
         <v>0</v>
       </c>
       <c r="C327">
-        <v>28.31</v>
+        <v>61.65</v>
       </c>
       <c r="D327">
         <v>21.58</v>
@@ -34723,7 +34723,7 @@
         <v>8</v>
       </c>
       <c r="C328">
-        <v>21.24</v>
+        <v>225.57</v>
       </c>
       <c r="D328">
         <v>20.2</v>
@@ -34821,7 +34821,7 @@
         <v>10</v>
       </c>
       <c r="C329">
-        <v>6.7</v>
+        <v>22.44</v>
       </c>
       <c r="D329">
         <v>20.25</v>
@@ -35008,7 +35008,7 @@
         <v>3</v>
       </c>
       <c r="C331">
-        <v>8.31</v>
+        <v>69.06999999999999</v>
       </c>
       <c r="D331">
         <v>21.1</v>
@@ -35106,7 +35106,7 @@
         <v>4</v>
       </c>
       <c r="C332">
-        <v>13.82</v>
+        <v>63.66</v>
       </c>
       <c r="D332">
         <v>20.78</v>
@@ -35204,7 +35204,7 @@
         <v>5</v>
       </c>
       <c r="C333">
-        <v>9.58</v>
+        <v>30.59</v>
       </c>
       <c r="D333">
         <v>21.78</v>
@@ -35302,7 +35302,7 @@
         <v>2</v>
       </c>
       <c r="C334">
-        <v>17.15</v>
+        <v>147.08</v>
       </c>
       <c r="D334">
         <v>19.56</v>
@@ -35400,7 +35400,7 @@
         <v>3</v>
       </c>
       <c r="C335">
-        <v>11.14</v>
+        <v>124.07</v>
       </c>
       <c r="D335">
         <v>20.5</v>
@@ -35498,7 +35498,7 @@
         <v>3</v>
       </c>
       <c r="C336">
-        <v>17.51</v>
+        <v>306.65</v>
       </c>
       <c r="D336">
         <v>20.57</v>
@@ -35596,7 +35596,7 @@
         <v>17</v>
       </c>
       <c r="C337">
-        <v>13.45</v>
+        <v>6.96</v>
       </c>
       <c r="D337">
         <v>19.53</v>
@@ -35694,7 +35694,7 @@
         <v>12</v>
       </c>
       <c r="C338">
-        <v>9.33</v>
+        <v>1.12</v>
       </c>
       <c r="D338">
         <v>20.2</v>
@@ -35792,7 +35792,7 @@
         <v>2</v>
       </c>
       <c r="C339">
-        <v>12.58</v>
+        <v>158.3</v>
       </c>
       <c r="D339">
         <v>21.56</v>
@@ -35890,7 +35890,7 @@
         <v>4</v>
       </c>
       <c r="C340">
-        <v>15.32</v>
+        <v>33.54</v>
       </c>
       <c r="D340">
         <v>21.64</v>
@@ -35988,7 +35988,7 @@
         <v>2</v>
       </c>
       <c r="C341">
-        <v>11.18</v>
+        <v>41.68</v>
       </c>
       <c r="D341">
         <v>21.52</v>
@@ -36086,7 +36086,7 @@
         <v>8</v>
       </c>
       <c r="C342">
-        <v>11.3</v>
+        <v>11.61</v>
       </c>
       <c r="D342">
         <v>20.01</v>
@@ -36184,7 +36184,7 @@
         <v>1</v>
       </c>
       <c r="C343">
-        <v>12.27</v>
+        <v>11.58</v>
       </c>
       <c r="D343">
         <v>19.18</v>
@@ -36282,7 +36282,7 @@
         <v>0</v>
       </c>
       <c r="C344">
-        <v>10.15</v>
+        <v>14.72</v>
       </c>
       <c r="D344">
         <v>20.26</v>
@@ -36380,7 +36380,7 @@
         <v>3</v>
       </c>
       <c r="C345">
-        <v>6.02</v>
+        <v>12.08</v>
       </c>
       <c r="D345">
         <v>20.13</v>
@@ -36478,7 +36478,7 @@
         <v>0</v>
       </c>
       <c r="C346">
-        <v>9.609999999999999</v>
+        <v>30.79</v>
       </c>
       <c r="D346">
         <v>20.34</v>
@@ -36576,7 +36576,7 @@
         <v>3</v>
       </c>
       <c r="C347">
-        <v>12.91</v>
+        <v>83.31</v>
       </c>
       <c r="D347">
         <v>20.64</v>
@@ -36668,7 +36668,7 @@
         <v>3</v>
       </c>
       <c r="C348">
-        <v>19.44</v>
+        <v>125.97</v>
       </c>
       <c r="D348">
         <v>19.48</v>
@@ -36766,7 +36766,7 @@
         <v>10</v>
       </c>
       <c r="C349">
-        <v>8.880000000000001</v>
+        <v>7.88</v>
       </c>
       <c r="D349">
         <v>20.19</v>
@@ -36864,7 +36864,7 @@
         <v>3</v>
       </c>
       <c r="C350">
-        <v>12.46</v>
+        <v>77.62</v>
       </c>
       <c r="D350">
         <v>20.06</v>
@@ -36962,7 +36962,7 @@
         <v>1</v>
       </c>
       <c r="C351">
-        <v>6.88</v>
+        <v>47.34</v>
       </c>
       <c r="D351">
         <v>20.42</v>
@@ -37060,7 +37060,7 @@
         <v>4</v>
       </c>
       <c r="C352">
-        <v>9.94</v>
+        <v>2.82</v>
       </c>
       <c r="D352">
         <v>20.19</v>
@@ -37158,7 +37158,7 @@
         <v>4</v>
       </c>
       <c r="C353">
-        <v>9.34</v>
+        <v>29.08</v>
       </c>
       <c r="D353">
         <v>20.88</v>
@@ -37256,7 +37256,7 @@
         <v>2</v>
       </c>
       <c r="C354">
-        <v>8.369999999999999</v>
+        <v>4.12</v>
       </c>
       <c r="D354">
         <v>20.94</v>
@@ -37354,7 +37354,7 @@
         <v>3</v>
       </c>
       <c r="C355">
-        <v>5.5</v>
+        <v>30.23</v>
       </c>
       <c r="D355">
         <v>20.39</v>
@@ -37452,7 +37452,7 @@
         <v>5</v>
       </c>
       <c r="C356">
-        <v>12.23</v>
+        <v>3.25</v>
       </c>
       <c r="D356">
         <v>19.88</v>
@@ -37550,7 +37550,7 @@
         <v>3</v>
       </c>
       <c r="C357">
-        <v>12.85</v>
+        <v>55.03</v>
       </c>
       <c r="D357">
         <v>19.81</v>
@@ -37648,7 +37648,7 @@
         <v>2</v>
       </c>
       <c r="C358">
-        <v>1.88</v>
+        <v>3.53</v>
       </c>
       <c r="D358">
         <v>20.63</v>
@@ -37832,7 +37832,7 @@
         <v>1</v>
       </c>
       <c r="C360">
-        <v>5.42</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D360">
         <v>19.89</v>
@@ -38025,7 +38025,7 @@
         <v>4</v>
       </c>
       <c r="C362">
-        <v>34.44</v>
+        <v>1185.95</v>
       </c>
       <c r="D362">
         <v>20.29</v>
@@ -38117,7 +38117,7 @@
         <v>72</v>
       </c>
       <c r="C363">
-        <v>72.31</v>
+        <v>5228.49</v>
       </c>
       <c r="D363">
         <v>15.81</v>
@@ -38215,7 +38215,7 @@
         <v>2</v>
       </c>
       <c r="C364">
-        <v>34.19</v>
+        <v>97.41</v>
       </c>
       <c r="D364">
         <v>21.17</v>
@@ -38313,7 +38313,7 @@
         <v>1</v>
       </c>
       <c r="C365">
-        <v>16.61</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="D365">
         <v>19.52</v>
@@ -38411,7 +38411,7 @@
         <v>16</v>
       </c>
       <c r="C366">
-        <v>12.73</v>
+        <v>1.98</v>
       </c>
       <c r="D366">
         <v>21.11</v>
@@ -38509,7 +38509,7 @@
         <v>2</v>
       </c>
       <c r="C367">
-        <v>6.57</v>
+        <v>43.18</v>
       </c>
       <c r="D367">
         <v>22.01</v>
@@ -38604,7 +38604,7 @@
         <v>28</v>
       </c>
       <c r="C368">
-        <v>15.46</v>
+        <v>13.28</v>
       </c>
       <c r="D368">
         <v>20.9</v>
@@ -38702,7 +38702,7 @@
         <v>8</v>
       </c>
       <c r="C369">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="D369">
         <v>20.89</v>
@@ -38800,7 +38800,7 @@
         <v>6</v>
       </c>
       <c r="C370">
-        <v>40.42</v>
+        <v>544.6</v>
       </c>
       <c r="D370">
         <v>20.02</v>
@@ -38898,7 +38898,7 @@
         <v>424</v>
       </c>
       <c r="C371">
-        <v>39.58</v>
+        <v>391.69</v>
       </c>
       <c r="D371">
         <v>20.64</v>
@@ -38996,7 +38996,7 @@
         <v>2</v>
       </c>
       <c r="C372">
-        <v>14.01</v>
+        <v>39.26</v>
       </c>
       <c r="D372">
         <v>21.19</v>
@@ -39272,7 +39272,7 @@
         <v>22</v>
       </c>
       <c r="C375">
-        <v>4.98</v>
+        <v>1.38</v>
       </c>
       <c r="D375">
         <v>21.11</v>
@@ -39370,7 +39370,7 @@
         <v>2</v>
       </c>
       <c r="C376">
-        <v>8.44</v>
+        <v>6.48</v>
       </c>
       <c r="D376">
         <v>20.85</v>
@@ -39462,7 +39462,7 @@
         <v>921</v>
       </c>
       <c r="C377">
-        <v>72.70999999999999</v>
+        <v>1321.76</v>
       </c>
       <c r="D377">
         <v>20.49</v>
@@ -39560,7 +39560,7 @@
         <v>15</v>
       </c>
       <c r="C378">
-        <v>8.52</v>
+        <v>1.81</v>
       </c>
       <c r="D378">
         <v>21.02</v>
@@ -39658,7 +39658,7 @@
         <v>8</v>
       </c>
       <c r="C379">
-        <v>14.04</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="D379">
         <v>21.27</v>
@@ -39756,7 +39756,7 @@
         <v>14</v>
       </c>
       <c r="C380">
-        <v>61.73</v>
+        <v>3810.49</v>
       </c>
       <c r="D380">
         <v>16.59</v>
@@ -39854,7 +39854,7 @@
         <v>2</v>
       </c>
       <c r="C381">
-        <v>7.45</v>
+        <v>7.93</v>
       </c>
       <c r="D381">
         <v>21.08</v>
@@ -39952,7 +39952,7 @@
         <v>5</v>
       </c>
       <c r="C382">
-        <v>12.6</v>
+        <v>1.94</v>
       </c>
       <c r="D382">
         <v>20.87</v>
@@ -40050,7 +40050,7 @@
         <v>6</v>
       </c>
       <c r="C383">
-        <v>52.14</v>
+        <v>2718.46</v>
       </c>
       <c r="D383">
         <v>20.58</v>
@@ -40231,7 +40231,7 @@
         <v>2</v>
       </c>
       <c r="C385">
-        <v>14.28</v>
+        <v>203.85</v>
       </c>
       <c r="D385">
         <v>21.63</v>
@@ -40323,7 +40323,7 @@
         <v>6</v>
       </c>
       <c r="C386">
-        <v>7.27</v>
+        <v>1.65</v>
       </c>
       <c r="D386">
         <v>20.77</v>
@@ -40421,7 +40421,7 @@
         <v>5</v>
       </c>
       <c r="C387">
-        <v>18.77</v>
+        <v>352.29</v>
       </c>
       <c r="D387">
         <v>20.77</v>
@@ -40519,7 +40519,7 @@
         <v>16</v>
       </c>
       <c r="C388">
-        <v>11.95</v>
+        <v>14.28</v>
       </c>
       <c r="D388">
         <v>21.02</v>
@@ -40712,7 +40712,7 @@
         <v>26</v>
       </c>
       <c r="C390">
-        <v>16.96</v>
+        <v>287.65</v>
       </c>
       <c r="D390">
         <v>20.77</v>
@@ -40810,7 +40810,7 @@
         <v>14</v>
       </c>
       <c r="C391">
-        <v>13.63</v>
+        <v>20.63</v>
       </c>
       <c r="D391">
         <v>21.44</v>
@@ -40908,7 +40908,7 @@
         <v>2</v>
       </c>
       <c r="C392">
-        <v>16.64</v>
+        <v>1.46</v>
       </c>
       <c r="D392">
         <v>20.95</v>
@@ -41006,7 +41006,7 @@
         <v>19</v>
       </c>
       <c r="C393">
-        <v>5.27</v>
+        <v>3.97</v>
       </c>
       <c r="D393">
         <v>20.05</v>
@@ -41104,7 +41104,7 @@
         <v>22</v>
       </c>
       <c r="C394">
-        <v>57.79</v>
+        <v>1113.27</v>
       </c>
       <c r="D394">
         <v>19.06</v>
@@ -41202,7 +41202,7 @@
         <v>1</v>
       </c>
       <c r="C395">
-        <v>28.69</v>
+        <v>82.31</v>
       </c>
       <c r="D395">
         <v>21.1</v>
@@ -41294,7 +41294,7 @@
         <v>2</v>
       </c>
       <c r="C396">
-        <v>2.53</v>
+        <v>3.2</v>
       </c>
       <c r="D396">
         <v>21.51</v>
@@ -41392,7 +41392,7 @@
         <v>6</v>
       </c>
       <c r="C397">
-        <v>6.41</v>
+        <v>41.07</v>
       </c>
       <c r="D397">
         <v>21.33</v>
@@ -41484,7 +41484,7 @@
         <v>13</v>
       </c>
       <c r="C398">
-        <v>11.5</v>
+        <v>3.78</v>
       </c>
       <c r="D398">
         <v>21.05</v>
@@ -41582,7 +41582,7 @@
         <v>1</v>
       </c>
       <c r="C399">
-        <v>37.06</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="D399">
         <v>20.91</v>
@@ -41680,7 +41680,7 @@
         <v>1</v>
       </c>
       <c r="C400">
-        <v>27.26</v>
+        <v>742.98</v>
       </c>
       <c r="D400">
         <v>20.57</v>
@@ -41778,7 +41778,7 @@
         <v>3</v>
       </c>
       <c r="C401">
-        <v>8.83</v>
+        <v>19.49</v>
       </c>
       <c r="D401">
         <v>20.94</v>
@@ -41876,7 +41876,7 @@
         <v>18</v>
       </c>
       <c r="C402">
-        <v>6.57</v>
+        <v>43.14</v>
       </c>
       <c r="D402">
         <v>20.63</v>
@@ -41974,7 +41974,7 @@
         <v>11</v>
       </c>
       <c r="C403">
-        <v>14.67</v>
+        <v>107.62</v>
       </c>
       <c r="D403">
         <v>20.15</v>
@@ -42072,7 +42072,7 @@
         <v>5</v>
       </c>
       <c r="C404">
-        <v>7.09</v>
+        <v>25.15</v>
       </c>
       <c r="D404">
         <v>20.65</v>
@@ -42265,7 +42265,7 @@
         <v>2</v>
       </c>
       <c r="C406">
-        <v>13.56</v>
+        <v>91.91</v>
       </c>
       <c r="D406">
         <v>20.33</v>
@@ -42363,7 +42363,7 @@
         <v>9</v>
       </c>
       <c r="C407">
-        <v>11.5</v>
+        <v>132.2</v>
       </c>
       <c r="D407">
         <v>20.2</v>
@@ -42461,7 +42461,7 @@
         <v>9</v>
       </c>
       <c r="C408">
-        <v>6.35</v>
+        <v>5.76</v>
       </c>
       <c r="D408">
         <v>20.57</v>
@@ -42559,7 +42559,7 @@
         <v>0</v>
       </c>
       <c r="C409">
-        <v>7.26</v>
+        <v>17.57</v>
       </c>
       <c r="D409">
         <v>20.29</v>
@@ -42657,7 +42657,7 @@
         <v>16</v>
       </c>
       <c r="C410">
-        <v>10.48</v>
+        <v>27.45</v>
       </c>
       <c r="D410">
         <v>20.11</v>
@@ -42755,7 +42755,7 @@
         <v>2</v>
       </c>
       <c r="C411">
-        <v>18.73</v>
+        <v>350.81</v>
       </c>
       <c r="D411">
         <v>20.62</v>
@@ -42853,7 +42853,7 @@
         <v>0</v>
       </c>
       <c r="C412">
-        <v>14.6</v>
+        <v>42.64</v>
       </c>
       <c r="D412">
         <v>21.69</v>
@@ -42951,7 +42951,7 @@
         <v>36</v>
       </c>
       <c r="C413">
-        <v>8.199999999999999</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D413">
         <v>20.52</v>
@@ -43601,7 +43601,7 @@
         <v>1</v>
       </c>
       <c r="C420">
-        <v>13.22</v>
+        <v>58.27</v>
       </c>
       <c r="D420">
         <v>19.71</v>
@@ -43788,7 +43788,7 @@
         <v>8</v>
       </c>
       <c r="C422">
-        <v>3.37</v>
+        <v>11.34</v>
       </c>
       <c r="D422">
         <v>20.82</v>
@@ -44165,7 +44165,7 @@
         <v>2</v>
       </c>
       <c r="C426">
-        <v>12.98</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="D426">
         <v>21.05</v>
@@ -44717,7 +44717,7 @@
         <v>8</v>
       </c>
       <c r="C432">
-        <v>2.98</v>
+        <v>4.44</v>
       </c>
       <c r="D432">
         <v>21.51</v>
@@ -44815,7 +44815,7 @@
         <v>2</v>
       </c>
       <c r="C433">
-        <v>8.050000000000001</v>
+        <v>64.83</v>
       </c>
       <c r="D433">
         <v>20.1</v>
@@ -44913,7 +44913,7 @@
         <v>0</v>
       </c>
       <c r="C434">
-        <v>53.08</v>
+        <v>2817.41</v>
       </c>
       <c r="D434">
         <v>22.44</v>
@@ -45005,7 +45005,7 @@
         <v>10</v>
       </c>
       <c r="C435">
-        <v>8.42</v>
+        <v>11.82</v>
       </c>
       <c r="D435">
         <v>19.04</v>
@@ -45103,7 +45103,7 @@
         <v>8</v>
       </c>
       <c r="C436">
-        <v>3.19</v>
+        <v>5.08</v>
       </c>
       <c r="D436">
         <v>18.98</v>
@@ -45296,7 +45296,7 @@
         <v>0</v>
       </c>
       <c r="C438">
-        <v>6.78</v>
+        <v>45.95</v>
       </c>
       <c r="D438">
         <v>21.25</v>
@@ -45394,7 +45394,7 @@
         <v>11</v>
       </c>
       <c r="C439">
-        <v>8.77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D439">
         <v>19.72</v>
@@ -45492,7 +45492,7 @@
         <v>11</v>
       </c>
       <c r="C440">
-        <v>15.31</v>
+        <v>12.34</v>
       </c>
       <c r="D440">
         <v>19.91</v>
@@ -45590,7 +45590,7 @@
         <v>1</v>
       </c>
       <c r="C441">
-        <v>13.54</v>
+        <v>9.65</v>
       </c>
       <c r="D441">
         <v>19.5</v>
@@ -45783,7 +45783,7 @@
         <v>2</v>
       </c>
       <c r="C443">
-        <v>10.98</v>
+        <v>120.54</v>
       </c>
       <c r="D443">
         <v>20.13</v>
@@ -45976,7 +45976,7 @@
         <v>5</v>
       </c>
       <c r="C445">
-        <v>17.55</v>
+        <v>38.49</v>
       </c>
       <c r="D445">
         <v>20.21</v>
@@ -46169,7 +46169,7 @@
         <v>0</v>
       </c>
       <c r="C447">
-        <v>8.42</v>
+        <v>70.91</v>
       </c>
       <c r="D447">
         <v>16.59</v>
@@ -46267,7 +46267,7 @@
         <v>5</v>
       </c>
       <c r="C448">
-        <v>8.33</v>
+        <v>6.31</v>
       </c>
       <c r="D448">
         <v>19.6</v>
@@ -46365,7 +46365,7 @@
         <v>2</v>
       </c>
       <c r="C449">
-        <v>4.23</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D449">
         <v>19.77</v>
@@ -46463,7 +46463,7 @@
         <v>0</v>
       </c>
       <c r="C450">
-        <v>5.48</v>
+        <v>15.02</v>
       </c>
       <c r="D450">
         <v>19.71</v>
@@ -46561,7 +46561,7 @@
         <v>0</v>
       </c>
       <c r="C451">
-        <v>9.15</v>
+        <v>13.96</v>
       </c>
       <c r="D451">
         <v>20.28</v>
@@ -46659,7 +46659,7 @@
         <v>10</v>
       </c>
       <c r="C452">
-        <v>27.01</v>
+        <v>182.41</v>
       </c>
       <c r="D452">
         <v>20.51</v>
@@ -46757,7 +46757,7 @@
         <v>46</v>
       </c>
       <c r="C453">
-        <v>5.69</v>
+        <v>32.35</v>
       </c>
       <c r="D453">
         <v>19.78</v>
@@ -46855,7 +46855,7 @@
         <v>0</v>
       </c>
       <c r="C454">
-        <v>13.49</v>
+        <v>60.66</v>
       </c>
       <c r="D454">
         <v>20.03</v>
@@ -46953,7 +46953,7 @@
         <v>18</v>
       </c>
       <c r="C455">
-        <v>6.74</v>
+        <v>6.49</v>
       </c>
       <c r="D455">
         <v>20.24</v>
@@ -47051,7 +47051,7 @@
         <v>3</v>
       </c>
       <c r="C456">
-        <v>13.78</v>
+        <v>15.82</v>
       </c>
       <c r="D456">
         <v>20</v>
@@ -47149,7 +47149,7 @@
         <v>0</v>
       </c>
       <c r="C457">
-        <v>6.35</v>
+        <v>40.3</v>
       </c>
       <c r="D457">
         <v>20.44</v>
@@ -47247,7 +47247,7 @@
         <v>0</v>
       </c>
       <c r="C458">
-        <v>3.98</v>
+        <v>15.82</v>
       </c>
       <c r="D458">
         <v>19.67</v>
@@ -47440,7 +47440,7 @@
         <v>1</v>
       </c>
       <c r="C460">
-        <v>4.3</v>
+        <v>18.49</v>
       </c>
       <c r="E460">
         <v>0</v>
@@ -47624,7 +47624,7 @@
         <v>1</v>
       </c>
       <c r="C462">
-        <v>2.55</v>
+        <v>6.49</v>
       </c>
       <c r="D462">
         <v>20.27</v>
@@ -47722,7 +47722,7 @@
         <v>3</v>
       </c>
       <c r="C463">
-        <v>10.23</v>
+        <v>52.31</v>
       </c>
       <c r="D463">
         <v>19.95</v>
@@ -47820,7 +47820,7 @@
         <v>10</v>
       </c>
       <c r="C464">
-        <v>8.1</v>
+        <v>16.4</v>
       </c>
       <c r="D464">
         <v>18.65</v>
@@ -47918,7 +47918,7 @@
         <v>4</v>
       </c>
       <c r="C465">
-        <v>5.42</v>
+        <v>29.39</v>
       </c>
       <c r="D465">
         <v>19.87</v>
@@ -48016,7 +48016,7 @@
         <v>11</v>
       </c>
       <c r="C466">
-        <v>11.75</v>
+        <v>0.7</v>
       </c>
       <c r="D466">
         <v>19.72</v>
@@ -48114,7 +48114,7 @@
         <v>11</v>
       </c>
       <c r="C467">
-        <v>12.39</v>
+        <v>21.92</v>
       </c>
       <c r="D467">
         <v>19.73</v>
@@ -48212,7 +48212,7 @@
         <v>8</v>
       </c>
       <c r="C468">
-        <v>3.39</v>
+        <v>11.5</v>
       </c>
       <c r="D468">
         <v>19.44</v>
@@ -48310,7 +48310,7 @@
         <v>1</v>
       </c>
       <c r="C469">
-        <v>10.61</v>
+        <v>7.03</v>
       </c>
       <c r="D469">
         <v>20.06</v>
@@ -48497,7 +48497,7 @@
         <v>12</v>
       </c>
       <c r="C471">
-        <v>13.55</v>
+        <v>8.74</v>
       </c>
       <c r="D471">
         <v>20.33</v>
@@ -48595,7 +48595,7 @@
         <v>2</v>
       </c>
       <c r="C472">
-        <v>14.41</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="D472">
         <v>20.56</v>
@@ -48693,7 +48693,7 @@
         <v>5</v>
       </c>
       <c r="C473">
-        <v>8.039999999999999</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="D473">
         <v>20.44</v>
@@ -48791,7 +48791,7 @@
         <v>1</v>
       </c>
       <c r="C474">
-        <v>13.19</v>
+        <v>9.66</v>
       </c>
       <c r="D474">
         <v>20.11</v>
@@ -48984,7 +48984,7 @@
         <v>1</v>
       </c>
       <c r="C476">
-        <v>8.789999999999999</v>
+        <v>25.74</v>
       </c>
       <c r="D476">
         <v>19.96</v>
@@ -49082,7 +49082,7 @@
         <v>5</v>
       </c>
       <c r="C477">
-        <v>12.21</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="D477">
         <v>17.21</v>
@@ -49177,7 +49177,7 @@
         <v>1</v>
       </c>
       <c r="C478">
-        <v>9.09</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D478">
         <v>19.85</v>
@@ -49275,7 +49275,7 @@
         <v>6</v>
       </c>
       <c r="C479">
-        <v>15</v>
+        <v>18.75</v>
       </c>
       <c r="D479">
         <v>19.47</v>
@@ -49373,7 +49373,7 @@
         <v>4</v>
       </c>
       <c r="C480">
-        <v>10.77</v>
+        <v>58</v>
       </c>
       <c r="D480">
         <v>19.34</v>
@@ -49468,7 +49468,7 @@
         <v>10</v>
       </c>
       <c r="C481">
-        <v>16.77</v>
+        <v>20.08</v>
       </c>
       <c r="D481">
         <v>19.55</v>
@@ -49756,7 +49756,7 @@
         <v>3</v>
       </c>
       <c r="C484">
-        <v>21.37</v>
+        <v>114.19</v>
       </c>
       <c r="D484">
         <v>20.14</v>
@@ -49851,7 +49851,7 @@
         <v>0</v>
       </c>
       <c r="C485">
-        <v>10.61</v>
+        <v>112.53</v>
       </c>
       <c r="D485">
         <v>20.16</v>
@@ -50044,7 +50044,7 @@
         <v>3</v>
       </c>
       <c r="C487">
-        <v>4.85</v>
+        <v>11.75</v>
       </c>
       <c r="D487">
         <v>20.24</v>
@@ -50237,7 +50237,7 @@
         <v>0</v>
       </c>
       <c r="C489">
-        <v>9.01</v>
+        <v>40.58</v>
       </c>
       <c r="D489">
         <v>19.99</v>
@@ -50335,7 +50335,7 @@
         <v>194</v>
       </c>
       <c r="C490">
-        <v>7.01</v>
+        <v>24.57</v>
       </c>
       <c r="D490">
         <v>20.15</v>
@@ -50433,7 +50433,7 @@
         <v>27</v>
       </c>
       <c r="C491">
-        <v>4.95</v>
+        <v>6.13</v>
       </c>
       <c r="D491">
         <v>20.51</v>
@@ -50531,7 +50531,7 @@
         <v>0</v>
       </c>
       <c r="C492">
-        <v>6.95</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D492">
         <v>19.93</v>
@@ -50629,7 +50629,7 @@
         <v>0</v>
       </c>
       <c r="C493">
-        <v>11.66</v>
+        <v>135.98</v>
       </c>
       <c r="D493">
         <v>20.2</v>
@@ -50810,7 +50810,7 @@
         <v>3</v>
       </c>
       <c r="C495">
-        <v>7.41</v>
+        <v>27.44</v>
       </c>
       <c r="D495">
         <v>20.53</v>
@@ -50908,7 +50908,7 @@
         <v>3</v>
       </c>
       <c r="C496">
-        <v>15.18</v>
+        <v>115.22</v>
       </c>
       <c r="D496">
         <v>19.95</v>
@@ -51000,7 +51000,7 @@
         <v>4</v>
       </c>
       <c r="C497">
-        <v>8.67</v>
+        <v>12.53</v>
       </c>
       <c r="D497">
         <v>19.83</v>
@@ -51095,7 +51095,7 @@
         <v>2</v>
       </c>
       <c r="C498">
-        <v>9.06</v>
+        <v>13.68</v>
       </c>
       <c r="D498">
         <v>20.27</v>
@@ -51193,7 +51193,7 @@
         <v>18</v>
       </c>
       <c r="C499">
-        <v>16.51</v>
+        <v>8.01</v>
       </c>
       <c r="D499">
         <v>20.09</v>
@@ -51291,7 +51291,7 @@
         <v>1</v>
       </c>
       <c r="C500">
-        <v>18.1</v>
+        <v>40.96</v>
       </c>
       <c r="D500">
         <v>19.78</v>
@@ -51389,7 +51389,7 @@
         <v>10</v>
       </c>
       <c r="C501">
-        <v>10.78</v>
+        <v>29.06</v>
       </c>
       <c r="D501">
         <v>20.74</v>
@@ -51487,7 +51487,7 @@
         <v>0</v>
       </c>
       <c r="C502">
-        <v>18.35</v>
+        <v>67.33</v>
       </c>
       <c r="D502">
         <v>20.35</v>
@@ -51585,7 +51585,7 @@
         <v>1</v>
       </c>
       <c r="C503">
-        <v>21.48</v>
+        <v>115.35</v>
       </c>
       <c r="D503">
         <v>20.62</v>
@@ -51683,7 +51683,7 @@
         <v>5</v>
       </c>
       <c r="C504">
-        <v>15.88</v>
+        <v>7.42</v>
       </c>
       <c r="D504">
         <v>20.18</v>
@@ -51781,7 +51781,7 @@
         <v>20</v>
       </c>
       <c r="C505">
-        <v>10.6</v>
+        <v>14.04</v>
       </c>
       <c r="D505">
         <v>20.08</v>
@@ -51879,7 +51879,7 @@
         <v>3</v>
       </c>
       <c r="C506">
-        <v>5.17</v>
+        <v>26.73</v>
       </c>
       <c r="D506">
         <v>19.94</v>
@@ -51977,7 +51977,7 @@
         <v>12</v>
       </c>
       <c r="C507">
-        <v>15.79</v>
+        <v>1.56</v>
       </c>
       <c r="D507">
         <v>20.03</v>
@@ -52075,7 +52075,7 @@
         <v>3</v>
       </c>
       <c r="C508">
-        <v>11.67</v>
+        <v>136.14</v>
       </c>
       <c r="D508">
         <v>20.31</v>
@@ -52164,7 +52164,7 @@
         <v>24</v>
       </c>
       <c r="C509">
-        <v>13.03</v>
+        <v>4.47</v>
       </c>
       <c r="D509">
         <v>20.07</v>
@@ -52262,7 +52262,7 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>8.34</v>
+        <v>11.6</v>
       </c>
       <c r="D510">
         <v>20.17</v>
@@ -52360,7 +52360,7 @@
         <v>3</v>
       </c>
       <c r="C511">
-        <v>11.08</v>
+        <v>1.27</v>
       </c>
       <c r="D511">
         <v>21.08</v>
@@ -52458,7 +52458,7 @@
         <v>3</v>
       </c>
       <c r="C512">
-        <v>17.38</v>
+        <v>60.4</v>
       </c>
       <c r="D512">
         <v>20.93</v>
@@ -52556,7 +52556,7 @@
         <v>2</v>
       </c>
       <c r="C513">
-        <v>10.15</v>
+        <v>51.51</v>
       </c>
       <c r="D513">
         <v>21.29</v>
@@ -52648,7 +52648,7 @@
         <v>2</v>
       </c>
       <c r="C514">
-        <v>9.25</v>
+        <v>42.79</v>
       </c>
       <c r="D514">
         <v>20.97</v>
@@ -52740,7 +52740,7 @@
         <v>46</v>
       </c>
       <c r="C515">
-        <v>7.24</v>
+        <v>17.48</v>
       </c>
       <c r="D515">
         <v>20.44</v>
@@ -52838,7 +52838,7 @@
         <v>2</v>
       </c>
       <c r="C516">
-        <v>18.71</v>
+        <v>18.42</v>
       </c>
       <c r="D516">
         <v>21.09</v>
@@ -52936,7 +52936,7 @@
         <v>2</v>
       </c>
       <c r="C517">
-        <v>10.45</v>
+        <v>54.61</v>
       </c>
       <c r="D517">
         <v>21.2</v>
@@ -53031,7 +53031,7 @@
         <v>1</v>
       </c>
       <c r="C518">
-        <v>13.38</v>
+        <v>13.77</v>
       </c>
       <c r="D518">
         <v>20.17</v>
@@ -53129,7 +53129,7 @@
         <v>3</v>
       </c>
       <c r="C519">
-        <v>19.56</v>
+        <v>191.33</v>
       </c>
       <c r="D519">
         <v>19.99</v>
@@ -53227,7 +53227,7 @@
         <v>13</v>
       </c>
       <c r="C520">
-        <v>9.06</v>
+        <v>1.01</v>
       </c>
       <c r="D520">
         <v>20.37</v>
@@ -53325,7 +53325,7 @@
         <v>1</v>
       </c>
       <c r="C521">
-        <v>5.27</v>
+        <v>27.77</v>
       </c>
       <c r="D521">
         <v>21.06</v>
@@ -53417,7 +53417,7 @@
         <v>15</v>
       </c>
       <c r="C522">
-        <v>5.02</v>
+        <v>12.59</v>
       </c>
       <c r="D522">
         <v>20.48</v>
@@ -53515,7 +53515,7 @@
         <v>3</v>
       </c>
       <c r="C523">
-        <v>7.94</v>
+        <v>2.43</v>
       </c>
       <c r="D523">
         <v>20.29</v>
@@ -53613,7 +53613,7 @@
         <v>2</v>
       </c>
       <c r="C524">
-        <v>5.29</v>
+        <v>5.6</v>
       </c>
       <c r="D524">
         <v>21.09</v>
@@ -53711,7 +53711,7 @@
         <v>3</v>
       </c>
       <c r="C525">
-        <v>12.15</v>
+        <v>147.61</v>
       </c>
       <c r="D525">
         <v>20.95</v>
@@ -53809,7 +53809,7 @@
         <v>2</v>
       </c>
       <c r="C526">
-        <v>14.04</v>
+        <v>98.55</v>
       </c>
       <c r="D526">
         <v>21.15</v>
@@ -53907,7 +53907,7 @@
         <v>3</v>
       </c>
       <c r="C527">
-        <v>11.02</v>
+        <v>60.74</v>
       </c>
       <c r="D527">
         <v>20.62</v>
@@ -54005,7 +54005,7 @@
         <v>2</v>
       </c>
       <c r="C528">
-        <v>42.76</v>
+        <v>457.13</v>
       </c>
       <c r="D528">
         <v>21.1</v>
@@ -54103,7 +54103,7 @@
         <v>2</v>
       </c>
       <c r="C529">
-        <v>18.93</v>
+        <v>358.25</v>
       </c>
       <c r="D529">
         <v>20.06</v>
@@ -54195,7 +54195,7 @@
         <v>11</v>
       </c>
       <c r="C530">
-        <v>7.66</v>
+        <v>14.68</v>
       </c>
       <c r="D530">
         <v>20.28</v>
@@ -54293,7 +54293,7 @@
         <v>2</v>
       </c>
       <c r="C531">
-        <v>19.57</v>
+        <v>127.66</v>
       </c>
       <c r="D531">
         <v>20.64</v>
@@ -54385,7 +54385,7 @@
         <v>1</v>
       </c>
       <c r="C532">
-        <v>14.73</v>
+        <v>54.25</v>
       </c>
       <c r="D532">
         <v>20.35</v>
@@ -54483,7 +54483,7 @@
         <v>2</v>
       </c>
       <c r="C533">
-        <v>11.88</v>
+        <v>70.55</v>
       </c>
       <c r="D533">
         <v>20.48</v>
@@ -54581,7 +54581,7 @@
         <v>9</v>
       </c>
       <c r="C534">
-        <v>20.99</v>
+        <v>4.59</v>
       </c>
       <c r="D534">
         <v>21.5</v>
@@ -54679,7 +54679,7 @@
         <v>4</v>
       </c>
       <c r="C535">
-        <v>22.37</v>
+        <v>50.05</v>
       </c>
       <c r="D535">
         <v>20.35</v>
@@ -54777,7 +54777,7 @@
         <v>1</v>
       </c>
       <c r="C536">
-        <v>18.17</v>
+        <v>66.02</v>
       </c>
       <c r="D536">
         <v>20.92</v>
@@ -54875,7 +54875,7 @@
         <v>4</v>
       </c>
       <c r="C537">
-        <v>20.24</v>
+        <v>2.06</v>
       </c>
       <c r="D537">
         <v>20.51</v>
@@ -54973,7 +54973,7 @@
         <v>1</v>
       </c>
       <c r="C538">
-        <v>6.66</v>
+        <v>22.17</v>
       </c>
       <c r="D538">
         <v>21.51</v>
@@ -55071,7 +55071,7 @@
         <v>1</v>
       </c>
       <c r="C539">
-        <v>10.9</v>
+        <v>19.8</v>
       </c>
       <c r="D539">
         <v>21.08</v>
@@ -55169,7 +55169,7 @@
         <v>3</v>
       </c>
       <c r="C540">
-        <v>13.35</v>
+        <v>13.71</v>
       </c>
       <c r="D540">
         <v>20.69</v>
@@ -55267,7 +55267,7 @@
         <v>12</v>
       </c>
       <c r="C541">
-        <v>17.9</v>
+        <v>6.16</v>
       </c>
       <c r="D541">
         <v>20.94</v>
@@ -55365,7 +55365,7 @@
         <v>1</v>
       </c>
       <c r="C542">
-        <v>12.76</v>
+        <v>2.54</v>
       </c>
       <c r="D542">
         <v>20.8</v>
@@ -55463,7 +55463,7 @@
         <v>7</v>
       </c>
       <c r="C543">
-        <v>21.79</v>
+        <v>52.75</v>
       </c>
       <c r="D543">
         <v>21.03</v>
@@ -55561,7 +55561,7 @@
         <v>11</v>
       </c>
       <c r="C544">
-        <v>26.31</v>
+        <v>32.96</v>
       </c>
       <c r="D544">
         <v>20.72</v>
@@ -55659,7 +55659,7 @@
         <v>1</v>
       </c>
       <c r="C545">
-        <v>20.12</v>
+        <v>101.22</v>
       </c>
       <c r="D545">
         <v>20.1</v>
@@ -55757,7 +55757,7 @@
         <v>1</v>
       </c>
       <c r="C546">
-        <v>9.93</v>
+        <v>12.32</v>
       </c>
       <c r="D546">
         <v>20.66</v>
@@ -55855,7 +55855,7 @@
         <v>2</v>
       </c>
       <c r="C547">
-        <v>13.99</v>
+        <v>9.32</v>
       </c>
       <c r="D547">
         <v>19.97</v>
@@ -55953,7 +55953,7 @@
         <v>4</v>
       </c>
       <c r="C548">
-        <v>21.1</v>
+        <v>23.43</v>
       </c>
       <c r="D548">
         <v>18.12</v>
@@ -56051,7 +56051,7 @@
         <v>1</v>
       </c>
       <c r="C549">
-        <v>42.07</v>
+        <v>442.42</v>
       </c>
       <c r="D549">
         <v>19.96</v>
@@ -56149,7 +56149,7 @@
         <v>4</v>
       </c>
       <c r="C550">
-        <v>25.94</v>
+        <v>112.14</v>
       </c>
       <c r="D550">
         <v>20.64</v>
@@ -56247,7 +56247,7 @@
         <v>3</v>
       </c>
       <c r="C551">
-        <v>19.86</v>
+        <v>394.36</v>
       </c>
       <c r="D551">
         <v>21.27</v>
@@ -56345,7 +56345,7 @@
         <v>7</v>
       </c>
       <c r="C552">
-        <v>17.67</v>
+        <v>4.05</v>
       </c>
       <c r="D552">
         <v>20.75</v>
@@ -56443,7 +56443,7 @@
         <v>13</v>
       </c>
       <c r="C553">
-        <v>18.08</v>
+        <v>46.7</v>
       </c>
       <c r="D553">
         <v>19.32</v>
@@ -56541,7 +56541,7 @@
         <v>4</v>
       </c>
       <c r="C554">
-        <v>40.61</v>
+        <v>824.5700000000001</v>
       </c>
       <c r="D554">
         <v>19.37</v>
@@ -56639,7 +56639,7 @@
         <v>2</v>
       </c>
       <c r="C555">
-        <v>52.85</v>
+        <v>2793.34</v>
       </c>
       <c r="D555">
         <v>14.88</v>
@@ -56731,7 +56731,7 @@
         <v>5</v>
       </c>
       <c r="C556">
-        <v>17.19</v>
+        <v>32.84</v>
       </c>
       <c r="D556">
         <v>20.96</v>
@@ -56829,7 +56829,7 @@
         <v>1</v>
       </c>
       <c r="C557">
-        <v>8.109999999999999</v>
+        <v>13.15</v>
       </c>
       <c r="D557">
         <v>20.76</v>
@@ -56927,7 +56927,7 @@
         <v>6</v>
       </c>
       <c r="C558">
-        <v>11.15</v>
+        <v>124.37</v>
       </c>
       <c r="D558">
         <v>17.22</v>
@@ -57019,7 +57019,7 @@
         <v>17</v>
       </c>
       <c r="C559">
-        <v>19.73</v>
+        <v>12.56</v>
       </c>
       <c r="D559">
         <v>21.46</v>
@@ -57117,7 +57117,7 @@
         <v>15</v>
       </c>
       <c r="C560">
-        <v>15.88</v>
+        <v>1.72</v>
       </c>
       <c r="D560">
         <v>21.06</v>
@@ -57215,7 +57215,7 @@
         <v>1</v>
       </c>
       <c r="C561">
-        <v>15.34</v>
+        <v>19.61</v>
       </c>
       <c r="D561">
         <v>20.86</v>
@@ -57313,7 +57313,7 @@
         <v>8</v>
       </c>
       <c r="C562">
-        <v>23.83</v>
+        <v>189.26</v>
       </c>
       <c r="D562">
         <v>19.91</v>
@@ -57411,7 +57411,7 @@
         <v>3</v>
       </c>
       <c r="C563">
-        <v>27.55</v>
+        <v>84.34</v>
       </c>
       <c r="D563">
         <v>21.31</v>
@@ -57509,7 +57509,7 @@
         <v>7</v>
       </c>
       <c r="C564">
-        <v>34.19</v>
+        <v>584.54</v>
       </c>
       <c r="D564">
         <v>17.68</v>
@@ -57607,7 +57607,7 @@
         <v>3</v>
       </c>
       <c r="C565">
-        <v>21.03</v>
+        <v>147.45</v>
       </c>
       <c r="D565">
         <v>21.51</v>
@@ -57705,7 +57705,7 @@
         <v>4</v>
       </c>
       <c r="C566">
-        <v>18.27</v>
+        <v>11.12</v>
       </c>
       <c r="D566">
         <v>21</v>
@@ -57803,7 +57803,7 @@
         <v>3</v>
       </c>
       <c r="C567">
-        <v>13.94</v>
+        <v>5.4</v>
       </c>
       <c r="D567">
         <v>18.4</v>
@@ -58070,7 +58070,7 @@
         <v>3</v>
       </c>
       <c r="C570">
-        <v>21.74</v>
+        <v>236.33</v>
       </c>
       <c r="D570">
         <v>18.19</v>
@@ -58168,7 +58168,7 @@
         <v>2</v>
       </c>
       <c r="C571">
-        <v>19.27</v>
+        <v>185.7</v>
       </c>
       <c r="D571">
         <v>21.21</v>
@@ -58266,7 +58266,7 @@
         <v>3</v>
       </c>
       <c r="C572">
-        <v>43.18</v>
+        <v>266.35</v>
       </c>
       <c r="D572">
         <v>21.12</v>
@@ -58364,7 +58364,7 @@
         <v>1</v>
       </c>
       <c r="C573">
-        <v>54.91</v>
+        <v>3015.38</v>
       </c>
       <c r="D573">
         <v>18.27</v>
@@ -58545,7 +58545,7 @@
         <v>1</v>
       </c>
       <c r="C575">
-        <v>70.81999999999999</v>
+        <v>5015.58</v>
       </c>
       <c r="D575">
         <v>16.59</v>
@@ -58643,7 +58643,7 @@
         <v>1</v>
       </c>
       <c r="C576">
-        <v>22.99</v>
+        <v>105.73</v>
       </c>
       <c r="D576">
         <v>20.88</v>
@@ -58741,7 +58741,7 @@
         <v>1</v>
       </c>
       <c r="C577">
-        <v>13.95</v>
+        <v>97.33</v>
       </c>
       <c r="D577">
         <v>20.88</v>
@@ -58839,7 +58839,7 @@
         <v>1</v>
       </c>
       <c r="C578">
-        <v>8.49</v>
+        <v>14.41</v>
       </c>
       <c r="D578">
         <v>20.22</v>
@@ -58937,7 +58937,7 @@
         <v>664</v>
       </c>
       <c r="C579">
-        <v>6.5</v>
+        <v>2.64</v>
       </c>
       <c r="D579">
         <v>19.61</v>
@@ -59035,7 +59035,7 @@
         <v>175</v>
       </c>
       <c r="C580">
-        <v>4.62</v>
+        <v>4.27</v>
       </c>
       <c r="D580">
         <v>19.72</v>
@@ -59133,7 +59133,7 @@
         <v>180</v>
       </c>
       <c r="C581">
-        <v>13.89</v>
+        <v>2.03</v>
       </c>
       <c r="D581">
         <v>19.86</v>
@@ -59231,7 +59231,7 @@
         <v>188</v>
       </c>
       <c r="C582">
-        <v>9.43</v>
+        <v>4.44</v>
       </c>
       <c r="D582">
         <v>19.19</v>
@@ -59329,7 +59329,7 @@
         <v>619</v>
       </c>
       <c r="C583">
-        <v>10.18</v>
+        <v>7.4</v>
       </c>
       <c r="D583">
         <v>19.61</v>
@@ -59427,7 +59427,7 @@
         <v>2</v>
       </c>
       <c r="C584">
-        <v>9.41</v>
+        <v>29.53</v>
       </c>
       <c r="D584">
         <v>20.04</v>
@@ -59525,7 +59525,7 @@
         <v>944</v>
       </c>
       <c r="C585">
-        <v>4.73</v>
+        <v>2.48</v>
       </c>
       <c r="D585">
         <v>20.02</v>
@@ -59623,7 +59623,7 @@
         <v>63</v>
       </c>
       <c r="C586">
-        <v>5.28</v>
+        <v>13.95</v>
       </c>
       <c r="D586">
         <v>20.15</v>
@@ -59721,7 +59721,7 @@
         <v>71</v>
       </c>
       <c r="C587">
-        <v>7.74</v>
+        <v>8.56</v>
       </c>
       <c r="D587">
         <v>19.83</v>
@@ -59819,7 +59819,7 @@
         <v>49</v>
       </c>
       <c r="C588">
-        <v>3.25</v>
+        <v>10.57</v>
       </c>
       <c r="D588">
         <v>20.33</v>
@@ -59917,7 +59917,7 @@
         <v>425</v>
       </c>
       <c r="C589">
-        <v>7.5</v>
+        <v>4.69</v>
       </c>
       <c r="D589">
         <v>20.01</v>
@@ -60015,7 +60015,7 @@
         <v>56</v>
       </c>
       <c r="C590">
-        <v>5.41</v>
+        <v>3.66</v>
       </c>
       <c r="D590">
         <v>19.79</v>
@@ -60113,7 +60113,7 @@
         <v>76</v>
       </c>
       <c r="C591">
-        <v>12.47</v>
+        <v>12.95</v>
       </c>
       <c r="D591">
         <v>20.11</v>
@@ -60211,7 +60211,7 @@
         <v>39</v>
       </c>
       <c r="C592">
-        <v>10.23</v>
+        <v>17.43</v>
       </c>
       <c r="D592">
         <v>19.86</v>
@@ -60309,7 +60309,7 @@
         <v>5</v>
       </c>
       <c r="C593">
-        <v>19.53</v>
+        <v>190.72</v>
       </c>
       <c r="D593">
         <v>19.67</v>
@@ -60401,7 +60401,7 @@
         <v>12</v>
       </c>
       <c r="C594">
-        <v>13.88</v>
+        <v>48.17</v>
       </c>
       <c r="D594">
         <v>20.68</v>
@@ -60499,7 +60499,7 @@
         <v>523</v>
       </c>
       <c r="C595">
-        <v>8.380000000000001</v>
+        <v>3.19</v>
       </c>
       <c r="D595">
         <v>19.19</v>
@@ -60597,7 +60597,7 @@
         <v>1</v>
       </c>
       <c r="C596">
-        <v>46.62</v>
+        <v>1086.71</v>
       </c>
       <c r="D596">
         <v>19.65</v>
@@ -60689,7 +60689,7 @@
         <v>297</v>
       </c>
       <c r="C597">
-        <v>36.62</v>
+        <v>223.48</v>
       </c>
       <c r="D597">
         <v>17.4</v>
@@ -60882,7 +60882,7 @@
         <v>24</v>
       </c>
       <c r="C599">
-        <v>9.68</v>
+        <v>4.69</v>
       </c>
       <c r="D599">
         <v>19.2</v>
@@ -60980,7 +60980,7 @@
         <v>5</v>
       </c>
       <c r="C600">
-        <v>116.21</v>
+        <v>6752.47</v>
       </c>
       <c r="D600">
         <v>19.19</v>
@@ -61069,7 +61069,7 @@
         <v>11</v>
       </c>
       <c r="C601">
-        <v>11.93</v>
+        <v>28.46</v>
       </c>
       <c r="D601">
         <v>20.18</v>
@@ -61167,7 +61167,7 @@
         <v>6</v>
       </c>
       <c r="C602">
-        <v>26.43</v>
+        <v>174.62</v>
       </c>
       <c r="D602">
         <v>19.47</v>
@@ -61265,7 +61265,7 @@
         <v>564</v>
       </c>
       <c r="C603">
-        <v>50.99</v>
+        <v>1300.1</v>
       </c>
       <c r="D603">
         <v>19.54</v>
@@ -61363,7 +61363,7 @@
         <v>52</v>
       </c>
       <c r="C604">
-        <v>25.61</v>
+        <v>163.95</v>
       </c>
       <c r="D604">
         <v>17.27</v>
@@ -61461,7 +61461,7 @@
         <v>8</v>
       </c>
       <c r="C605">
-        <v>5.54</v>
+        <v>30.71</v>
       </c>
       <c r="D605">
         <v>20.54</v>
@@ -61559,7 +61559,7 @@
         <v>1</v>
       </c>
       <c r="C606">
-        <v>44.79</v>
+        <v>668.71</v>
       </c>
       <c r="D606">
         <v>20.31</v>
@@ -61657,7 +61657,7 @@
         <v>6</v>
       </c>
       <c r="C607">
-        <v>26.65</v>
+        <v>177.56</v>
       </c>
       <c r="D607">
         <v>20.57</v>
@@ -61850,7 +61850,7 @@
         <v>0</v>
       </c>
       <c r="C609">
-        <v>14.77</v>
+        <v>13.63</v>
       </c>
       <c r="D609">
         <v>19.64</v>
@@ -61948,7 +61948,7 @@
         <v>20</v>
       </c>
       <c r="C610">
-        <v>16.74</v>
+        <v>3.11</v>
       </c>
       <c r="D610">
         <v>17.39</v>
@@ -62046,7 +62046,7 @@
         <v>113</v>
       </c>
       <c r="C611">
-        <v>47.08</v>
+        <v>1108.29</v>
       </c>
       <c r="D611">
         <v>18.01</v>
@@ -62141,7 +62141,7 @@
         <v>471</v>
       </c>
       <c r="C612">
-        <v>16.93</v>
+        <v>286.61</v>
       </c>
       <c r="D612">
         <v>18.03</v>
@@ -62236,7 +62236,7 @@
         <v>405</v>
       </c>
       <c r="C613">
-        <v>37.77</v>
+        <v>142.66</v>
       </c>
       <c r="D613">
         <v>17.89</v>
@@ -62423,7 +62423,7 @@
         <v>77</v>
       </c>
       <c r="C615">
-        <v>16.2</v>
+        <v>3.86</v>
       </c>
       <c r="D615">
         <v>16.87</v>
@@ -62521,7 +62521,7 @@
         <v>2</v>
       </c>
       <c r="C616">
-        <v>14.62</v>
+        <v>106.88</v>
       </c>
       <c r="D616">
         <v>20.39</v>
@@ -62619,7 +62619,7 @@
         <v>1192</v>
       </c>
       <c r="C617">
-        <v>17.32</v>
+        <v>2.5</v>
       </c>
       <c r="D617">
         <v>17.18</v>
@@ -62717,7 +62717,7 @@
         <v>73</v>
       </c>
       <c r="C618">
-        <v>19.8</v>
+        <v>15.07</v>
       </c>
       <c r="D618">
         <v>16.86</v>
@@ -62910,7 +62910,7 @@
         <v>226</v>
       </c>
       <c r="C620">
-        <v>19.12</v>
+        <v>36.57</v>
       </c>
       <c r="D620">
         <v>19.77</v>
@@ -63008,7 +63008,7 @@
         <v>9</v>
       </c>
       <c r="C621">
-        <v>20.82</v>
+        <v>86.70999999999999</v>
       </c>
       <c r="D621">
         <v>20.75</v>
@@ -63106,7 +63106,7 @@
         <v>6</v>
       </c>
       <c r="C622">
-        <v>14.96</v>
+        <v>4.97</v>
       </c>
       <c r="D622">
         <v>19.03</v>
@@ -63204,7 +63204,7 @@
         <v>44</v>
       </c>
       <c r="C623">
-        <v>26.29</v>
+        <v>43.2</v>
       </c>
       <c r="D623">
         <v>19.14</v>
@@ -63302,7 +63302,7 @@
         <v>12</v>
       </c>
       <c r="C624">
-        <v>17.19</v>
+        <v>4.93</v>
       </c>
       <c r="D624">
         <v>20.05</v>
@@ -63581,7 +63581,7 @@
         <v>2</v>
       </c>
       <c r="C627">
-        <v>18.92</v>
+        <v>119.34</v>
       </c>
       <c r="D627">
         <v>17.57</v>
@@ -63676,7 +63676,7 @@
         <v>2</v>
       </c>
       <c r="C628">
-        <v>5.58</v>
+        <v>31.14</v>
       </c>
       <c r="D628">
         <v>19.67</v>
@@ -63771,7 +63771,7 @@
         <v>9</v>
       </c>
       <c r="C629">
-        <v>13.7</v>
+        <v>17.06</v>
       </c>
       <c r="D629">
         <v>20.28</v>
@@ -63869,7 +63869,7 @@
         <v>10</v>
       </c>
       <c r="C630">
-        <v>15.81</v>
+        <v>31.24</v>
       </c>
       <c r="D630">
         <v>19.91</v>
@@ -63967,7 +63967,7 @@
         <v>4</v>
       </c>
       <c r="C631">
-        <v>11.55</v>
+        <v>66.7</v>
       </c>
       <c r="D631">
         <v>19.69</v>
@@ -64059,7 +64059,7 @@
         <v>3</v>
       </c>
       <c r="C632">
-        <v>24.94</v>
+        <v>155.48</v>
       </c>
       <c r="D632">
         <v>19.62</v>
@@ -64154,7 +64154,7 @@
         <v>2</v>
       </c>
       <c r="C633">
-        <v>8.27</v>
+        <v>11.4</v>
       </c>
       <c r="D633">
         <v>19.84</v>
@@ -64252,7 +64252,7 @@
         <v>7</v>
       </c>
       <c r="C634">
-        <v>21.1</v>
+        <v>445.15</v>
       </c>
       <c r="D634">
         <v>20.05</v>
@@ -64433,7 +64433,7 @@
         <v>3</v>
       </c>
       <c r="C636">
-        <v>12.3</v>
+        <v>12.61</v>
       </c>
       <c r="D636">
         <v>19.98</v>
@@ -64531,7 +64531,7 @@
         <v>1</v>
       </c>
       <c r="C637">
-        <v>33.19</v>
+        <v>220.31</v>
       </c>
       <c r="D637">
         <v>18.76</v>
@@ -64626,7 +64626,7 @@
         <v>6</v>
       </c>
       <c r="C638">
-        <v>7.72</v>
+        <v>19.88</v>
       </c>
       <c r="D638">
         <v>20.5</v>
@@ -64721,7 +64721,7 @@
         <v>1</v>
       </c>
       <c r="C639">
-        <v>2.6</v>
+        <v>6.75</v>
       </c>
       <c r="D639">
         <v>20.23</v>
@@ -64816,7 +64816,7 @@
         <v>5</v>
       </c>
       <c r="C640">
-        <v>13.62</v>
+        <v>61.84</v>
       </c>
       <c r="D640">
         <v>20.68</v>
@@ -64911,7 +64911,7 @@
         <v>9</v>
       </c>
       <c r="C641">
-        <v>10.59</v>
+        <v>112.13</v>
       </c>
       <c r="D641">
         <v>19.48</v>
@@ -65006,7 +65006,7 @@
         <v>9</v>
       </c>
       <c r="C642">
-        <v>5.39</v>
+        <v>29.03</v>
       </c>
       <c r="D642">
         <v>20.09</v>
@@ -65101,7 +65101,7 @@
         <v>9</v>
       </c>
       <c r="C643">
-        <v>11.51</v>
+        <v>44.18</v>
       </c>
       <c r="D643">
         <v>19.95</v>
@@ -65288,7 +65288,7 @@
         <v>4</v>
       </c>
       <c r="C645">
-        <v>4.9</v>
+        <v>6.01</v>
       </c>
       <c r="D645">
         <v>20.03</v>
@@ -65386,7 +65386,7 @@
         <v>1</v>
       </c>
       <c r="C646">
-        <v>8.59</v>
+        <v>36.89</v>
       </c>
       <c r="D646">
         <v>20.02</v>
@@ -65481,7 +65481,7 @@
         <v>3</v>
       </c>
       <c r="C647">
-        <v>7.72</v>
+        <v>59.63</v>
       </c>
       <c r="D647">
         <v>19.78</v>
@@ -65662,7 +65662,7 @@
         <v>6</v>
       </c>
       <c r="C649">
-        <v>7.66</v>
+        <v>58.65</v>
       </c>
       <c r="D649">
         <v>19.94</v>
@@ -65757,7 +65757,7 @@
         <v>5</v>
       </c>
       <c r="C650">
-        <v>17.27</v>
+        <v>49.72</v>
       </c>
       <c r="D650">
         <v>19.58</v>
@@ -65852,7 +65852,7 @@
         <v>5</v>
       </c>
       <c r="C651">
-        <v>14.78</v>
+        <v>109.23</v>
       </c>
       <c r="D651">
         <v>19.77</v>
@@ -65947,7 +65947,7 @@
         <v>5</v>
       </c>
       <c r="C652">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D652">
         <v>19.19</v>
@@ -66045,7 +66045,7 @@
         <v>4</v>
       </c>
       <c r="C653">
-        <v>11.15</v>
+        <v>24.87</v>
       </c>
       <c r="D653">
         <v>19.49</v>
@@ -66143,7 +66143,7 @@
         <v>1</v>
       </c>
       <c r="C654">
-        <v>13.4</v>
+        <v>59.86</v>
       </c>
       <c r="D654">
         <v>19.42</v>
@@ -66238,7 +66238,7 @@
         <v>4</v>
       </c>
       <c r="C655">
-        <v>11.32</v>
+        <v>64.09</v>
       </c>
       <c r="D655">
         <v>20.15</v>
@@ -66333,7 +66333,7 @@
         <v>5</v>
       </c>
       <c r="C656">
-        <v>11.88</v>
+        <v>47.04</v>
       </c>
       <c r="D656">
         <v>19.9</v>
@@ -66428,7 +66428,7 @@
         <v>2</v>
       </c>
       <c r="C657">
-        <v>9.49</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D657">
         <v>20.45</v>
@@ -66523,7 +66523,7 @@
         <v>3</v>
       </c>
       <c r="C658">
-        <v>9.130000000000001</v>
+        <v>27.8</v>
       </c>
       <c r="D658">
         <v>19.81</v>
@@ -66618,7 +66618,7 @@
         <v>2</v>
       </c>
       <c r="C659">
-        <v>14.2</v>
+        <v>100.84</v>
       </c>
       <c r="D659">
         <v>19.43</v>
@@ -66707,7 +66707,7 @@
         <v>1</v>
       </c>
       <c r="C660">
-        <v>12.07</v>
+        <v>29.14</v>
       </c>
       <c r="D660">
         <v>19.71</v>
@@ -66802,7 +66802,7 @@
         <v>5</v>
       </c>
       <c r="C661">
-        <v>6.65</v>
+        <v>14.75</v>
       </c>
       <c r="D661">
         <v>19.46</v>
@@ -66900,7 +66900,7 @@
         <v>3</v>
       </c>
       <c r="C662">
-        <v>16.19</v>
+        <v>262.14</v>
       </c>
       <c r="D662">
         <v>18.5</v>
@@ -66989,7 +66989,7 @@
         <v>1</v>
       </c>
       <c r="C663">
-        <v>10.52</v>
+        <v>55.36</v>
       </c>
       <c r="D663">
         <v>19.58</v>
@@ -67167,7 +67167,7 @@
         <v>1</v>
       </c>
       <c r="C665">
-        <v>13.11</v>
+        <v>171.82</v>
       </c>
       <c r="D665">
         <v>19.81</v>
@@ -67256,7 +67256,7 @@
         <v>3</v>
       </c>
       <c r="C666">
-        <v>37.38</v>
+        <v>698.6900000000001</v>
       </c>
       <c r="D666">
         <v>16.22</v>
@@ -67345,7 +67345,7 @@
         <v>4</v>
       </c>
       <c r="C667">
-        <v>10.51</v>
+        <v>110.42</v>
       </c>
       <c r="D667">
         <v>20.19</v>
@@ -67434,7 +67434,7 @@
         <v>14</v>
       </c>
       <c r="C668">
-        <v>7.31</v>
+        <v>8.91</v>
       </c>
       <c r="D668">
         <v>19.8</v>
@@ -67532,7 +67532,7 @@
         <v>15</v>
       </c>
       <c r="C669">
-        <v>14.26</v>
+        <v>33.9</v>
       </c>
       <c r="D669">
         <v>20.27</v>
@@ -67725,7 +67725,7 @@
         <v>8</v>
       </c>
       <c r="C671">
-        <v>7.06</v>
+        <v>24.92</v>
       </c>
       <c r="D671">
         <v>20.49</v>
@@ -67823,7 +67823,7 @@
         <v>18</v>
       </c>
       <c r="C672">
-        <v>19.58</v>
+        <v>34.85</v>
       </c>
       <c r="D672">
         <v>19.03</v>
@@ -67921,7 +67921,7 @@
         <v>5</v>
       </c>
       <c r="C673">
-        <v>12.67</v>
+        <v>160.58</v>
       </c>
       <c r="D673">
         <v>20.39</v>
@@ -68019,7 +68019,7 @@
         <v>25</v>
       </c>
       <c r="C674">
-        <v>11.06</v>
+        <v>40.77</v>
       </c>
       <c r="D674">
         <v>19.65</v>
@@ -68117,7 +68117,7 @@
         <v>7</v>
       </c>
       <c r="C675">
-        <v>23.58</v>
+        <v>50.55</v>
       </c>
       <c r="D675">
         <v>19.93</v>
@@ -68215,7 +68215,7 @@
         <v>4</v>
       </c>
       <c r="C676">
-        <v>8.869999999999999</v>
+        <v>26.23</v>
       </c>
       <c r="D676">
         <v>19.78</v>
@@ -68313,7 +68313,7 @@
         <v>7</v>
       </c>
       <c r="C677">
-        <v>17.65</v>
+        <v>62.32</v>
       </c>
       <c r="D677">
         <v>19.97</v>
@@ -68500,7 +68500,7 @@
         <v>1</v>
       </c>
       <c r="C679">
-        <v>11.65</v>
+        <v>45.24</v>
       </c>
       <c r="D679">
         <v>20.44</v>
@@ -68693,7 +68693,7 @@
         <v>6</v>
       </c>
       <c r="C681">
-        <v>14.58</v>
+        <v>10.12</v>
       </c>
       <c r="D681">
         <v>19.68</v>
@@ -68791,7 +68791,7 @@
         <v>4</v>
       </c>
       <c r="C682">
-        <v>7.15</v>
+        <v>17.05</v>
       </c>
       <c r="D682">
         <v>20.37</v>
@@ -68978,7 +68978,7 @@
         <v>21</v>
       </c>
       <c r="C684">
-        <v>8.24</v>
+        <v>33.95</v>
       </c>
       <c r="D684">
         <v>20.44</v>
@@ -69076,7 +69076,7 @@
         <v>85</v>
       </c>
       <c r="C685">
-        <v>11.83</v>
+        <v>46.65</v>
       </c>
       <c r="D685">
         <v>19.48</v>
@@ -69174,7 +69174,7 @@
         <v>2</v>
       </c>
       <c r="C686">
-        <v>7.48</v>
+        <v>8</v>
       </c>
       <c r="D686">
         <v>20.31</v>
@@ -69272,7 +69272,7 @@
         <v>63</v>
       </c>
       <c r="C687">
-        <v>12.16</v>
+        <v>3.89</v>
       </c>
       <c r="D687">
         <v>19.09</v>
@@ -69370,7 +69370,7 @@
         <v>253</v>
       </c>
       <c r="C688">
-        <v>3.61</v>
+        <v>6.52</v>
       </c>
       <c r="D688">
         <v>20.55</v>
@@ -69468,7 +69468,7 @@
         <v>1</v>
       </c>
       <c r="C689">
-        <v>17.43</v>
+        <v>303.76</v>
       </c>
       <c r="D689">
         <v>19.77</v>
@@ -69566,7 +69566,7 @@
         <v>6</v>
       </c>
       <c r="C690">
-        <v>14.47</v>
+        <v>6.98</v>
       </c>
       <c r="D690">
         <v>19.54</v>
@@ -69664,7 +69664,7 @@
         <v>13</v>
       </c>
       <c r="C691">
-        <v>14.49</v>
+        <v>26.24</v>
       </c>
       <c r="D691">
         <v>20.59</v>
@@ -69762,7 +69762,7 @@
         <v>0</v>
       </c>
       <c r="C692">
-        <v>3.37</v>
+        <v>5.69</v>
       </c>
       <c r="D692">
         <v>20.48</v>
@@ -69860,7 +69860,7 @@
         <v>44</v>
       </c>
       <c r="C693">
-        <v>4.59</v>
+        <v>3.51</v>
       </c>
       <c r="D693">
         <v>19.2</v>
@@ -69958,7 +69958,7 @@
         <v>100</v>
       </c>
       <c r="C694">
-        <v>36.63</v>
+        <v>167.73</v>
       </c>
       <c r="D694">
         <v>20.27</v>
@@ -70056,7 +70056,7 @@
         <v>2</v>
       </c>
       <c r="C695">
-        <v>4.35</v>
+        <v>18.92</v>
       </c>
       <c r="D695">
         <v>20.47</v>
@@ -70249,7 +70249,7 @@
         <v>4</v>
       </c>
       <c r="C697">
-        <v>21.39</v>
+        <v>76.26000000000001</v>
       </c>
       <c r="D697">
         <v>19.76</v>
@@ -70442,7 +70442,7 @@
         <v>31</v>
       </c>
       <c r="C699">
-        <v>3.69</v>
+        <v>6.8</v>
       </c>
       <c r="D699">
         <v>20.59</v>
@@ -70540,7 +70540,7 @@
         <v>17</v>
       </c>
       <c r="C700">
-        <v>9.44</v>
+        <v>44.56</v>
       </c>
       <c r="D700">
         <v>19.58</v>
@@ -70638,7 +70638,7 @@
         <v>15</v>
       </c>
       <c r="C701">
-        <v>12.21</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="D701">
         <v>19.22</v>
@@ -70736,7 +70736,7 @@
         <v>58</v>
       </c>
       <c r="C702">
-        <v>4.92</v>
+        <v>6.06</v>
       </c>
       <c r="D702">
         <v>20.55</v>
@@ -70834,7 +70834,7 @@
         <v>0</v>
       </c>
       <c r="C703">
-        <v>9.57</v>
+        <v>45.81</v>
       </c>
       <c r="D703">
         <v>20.2</v>
@@ -70932,7 +70932,7 @@
         <v>8</v>
       </c>
       <c r="C704">
-        <v>17.86</v>
+        <v>21.26</v>
       </c>
       <c r="D704">
         <v>20.37</v>
@@ -71030,7 +71030,7 @@
         <v>4</v>
       </c>
       <c r="C705">
-        <v>7.43</v>
+        <v>27.6</v>
       </c>
       <c r="D705">
         <v>20.14</v>
@@ -71128,7 +71128,7 @@
         <v>11</v>
       </c>
       <c r="C706">
-        <v>10.55</v>
+        <v>15.91</v>
       </c>
       <c r="D706">
         <v>19.59</v>
@@ -71226,7 +71226,7 @@
         <v>31</v>
       </c>
       <c r="C707">
-        <v>12.38</v>
+        <v>51.1</v>
       </c>
       <c r="D707">
         <v>20.49</v>
@@ -71324,7 +71324,7 @@
         <v>4</v>
       </c>
       <c r="C708">
-        <v>16.19</v>
+        <v>87.37</v>
       </c>
       <c r="D708">
         <v>19.45</v>
@@ -71422,7 +71422,7 @@
         <v>7</v>
       </c>
       <c r="C709">
-        <v>2.38</v>
+        <v>5.67</v>
       </c>
       <c r="D709">
         <v>20.09</v>
@@ -71520,7 +71520,7 @@
         <v>1</v>
       </c>
       <c r="C710">
-        <v>27.48</v>
+        <v>377.52</v>
       </c>
       <c r="D710">
         <v>20.38</v>
@@ -71618,7 +71618,7 @@
         <v>39</v>
       </c>
       <c r="C711">
-        <v>6.01</v>
+        <v>36.12</v>
       </c>
       <c r="D711">
         <v>19.79</v>
@@ -71805,7 +71805,7 @@
         <v>15</v>
       </c>
       <c r="C713">
-        <v>13.98</v>
+        <v>32.58</v>
       </c>
       <c r="D713">
         <v>20.21</v>
@@ -71903,7 +71903,7 @@
         <v>0</v>
       </c>
       <c r="C714">
-        <v>4.33</v>
+        <v>18.74</v>
       </c>
       <c r="D714">
         <v>18.67</v>
@@ -72001,7 +72001,7 @@
         <v>3</v>
       </c>
       <c r="C715">
-        <v>7.46</v>
+        <v>27.84</v>
       </c>
       <c r="D715">
         <v>20.21</v>
@@ -72093,7 +72093,7 @@
         <v>166</v>
       </c>
       <c r="C716">
-        <v>12.64</v>
+        <v>79.87</v>
       </c>
       <c r="D716">
         <v>19.34</v>
@@ -72191,7 +72191,7 @@
         <v>4</v>
       </c>
       <c r="C717">
-        <v>5.83</v>
+        <v>11.33</v>
       </c>
       <c r="D717">
         <v>20.45</v>
@@ -72381,7 +72381,7 @@
         <v>12</v>
       </c>
       <c r="C719">
-        <v>8.23</v>
+        <v>11.28</v>
       </c>
       <c r="D719">
         <v>19.9</v>
@@ -72479,7 +72479,7 @@
         <v>3</v>
       </c>
       <c r="C720">
-        <v>7.6</v>
+        <v>1.56</v>
       </c>
       <c r="D720">
         <v>20.1</v>
@@ -72577,7 +72577,7 @@
         <v>13</v>
       </c>
       <c r="C721">
-        <v>5.1</v>
+        <v>12.99</v>
       </c>
       <c r="D721">
         <v>19.62</v>
@@ -72675,7 +72675,7 @@
         <v>9</v>
       </c>
       <c r="C722">
-        <v>6.97</v>
+        <v>24.29</v>
       </c>
       <c r="D722">
         <v>19.34</v>
@@ -72773,7 +72773,7 @@
         <v>1</v>
       </c>
       <c r="C723">
-        <v>6.02</v>
+        <v>36.26</v>
       </c>
       <c r="D723">
         <v>20.01</v>
@@ -72871,7 +72871,7 @@
         <v>20</v>
       </c>
       <c r="C724">
-        <v>10.4</v>
+        <v>27.03</v>
       </c>
       <c r="D724">
         <v>20.18</v>
@@ -73064,7 +73064,7 @@
         <v>3</v>
       </c>
       <c r="C726">
-        <v>15.61</v>
+        <v>81.22</v>
       </c>
       <c r="D726">
         <v>19.86</v>
@@ -73162,7 +73162,7 @@
         <v>11</v>
       </c>
       <c r="C727">
-        <v>5.47</v>
+        <v>29.92</v>
       </c>
       <c r="D727">
         <v>20.16</v>
@@ -73260,7 +73260,7 @@
         <v>4</v>
       </c>
       <c r="C728">
-        <v>2.6</v>
+        <v>6.77</v>
       </c>
       <c r="D728">
         <v>19.95</v>
@@ -73358,7 +73358,7 @@
         <v>1</v>
       </c>
       <c r="C729">
-        <v>15.57</v>
+        <v>14.26</v>
       </c>
       <c r="D729">
         <v>20.08</v>
@@ -73456,7 +73456,7 @@
         <v>1</v>
       </c>
       <c r="C730">
-        <v>5.82</v>
+        <v>33.9</v>
       </c>
       <c r="D730">
         <v>9.6</v>
@@ -73554,7 +73554,7 @@
         <v>27</v>
       </c>
       <c r="C731">
-        <v>22.01</v>
+        <v>24.23</v>
       </c>
       <c r="D731">
         <v>19.62</v>
@@ -73652,7 +73652,7 @@
         <v>70</v>
       </c>
       <c r="C732">
-        <v>14.94</v>
+        <v>10.15</v>
       </c>
       <c r="D732">
         <v>19.29</v>
@@ -73750,7 +73750,7 @@
         <v>1</v>
       </c>
       <c r="C733">
-        <v>4.58</v>
+        <v>7</v>
       </c>
       <c r="D733">
         <v>21.04</v>
@@ -73848,7 +73848,7 @@
         <v>235</v>
       </c>
       <c r="C734">
-        <v>29.96</v>
+        <v>179.51</v>
       </c>
       <c r="D734">
         <v>19.66</v>
@@ -73946,7 +73946,7 @@
         <v>8</v>
       </c>
       <c r="C735">
-        <v>19.47</v>
+        <v>189.53</v>
       </c>
       <c r="D735">
         <v>18.25</v>
@@ -74044,7 +74044,7 @@
         <v>11</v>
       </c>
       <c r="C736">
-        <v>13.36</v>
+        <v>35.69</v>
       </c>
       <c r="D736">
         <v>20.29</v>
@@ -74142,7 +74142,7 @@
         <v>7</v>
       </c>
       <c r="C737">
-        <v>17.69</v>
+        <v>104.29</v>
       </c>
       <c r="D737">
         <v>19.63</v>
@@ -74240,7 +74240,7 @@
         <v>7</v>
       </c>
       <c r="C738">
-        <v>12.59</v>
+        <v>52.85</v>
       </c>
       <c r="D738">
         <v>20.13</v>
@@ -74338,7 +74338,7 @@
         <v>7</v>
       </c>
       <c r="C739">
-        <v>12.12</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D739">
         <v>20.19</v>
@@ -74436,7 +74436,7 @@
         <v>3</v>
       </c>
       <c r="C740">
-        <v>8.84</v>
+        <v>78.11</v>
       </c>
       <c r="D740">
         <v>19.53</v>
@@ -74531,7 +74531,7 @@
         <v>12</v>
       </c>
       <c r="C741">
-        <v>17.5</v>
+        <v>76.58</v>
       </c>
       <c r="D741">
         <v>20.45</v>
@@ -74724,7 +74724,7 @@
         <v>418</v>
       </c>
       <c r="C743">
-        <v>15.46</v>
+        <v>15.93</v>
       </c>
       <c r="D743">
         <v>19.88</v>
@@ -74822,7 +74822,7 @@
         <v>552</v>
       </c>
       <c r="C744">
-        <v>8.119999999999999</v>
+        <v>5.07</v>
       </c>
       <c r="D744">
         <v>19.91</v>
@@ -74920,7 +74920,7 @@
         <v>7</v>
       </c>
       <c r="C745">
-        <v>13.07</v>
+        <v>17.09</v>
       </c>
       <c r="D745">
         <v>20.13</v>
@@ -75018,7 +75018,7 @@
         <v>2</v>
       </c>
       <c r="C746">
-        <v>12.72</v>
+        <v>32.36</v>
       </c>
       <c r="D746">
         <v>20.37</v>
@@ -75113,7 +75113,7 @@
         <v>194</v>
       </c>
       <c r="C747">
-        <v>14.1</v>
+        <v>7.36</v>
       </c>
       <c r="D747">
         <v>20.06</v>
@@ -75211,7 +75211,7 @@
         <v>2</v>
       </c>
       <c r="C748">
-        <v>14.86</v>
+        <v>73.62</v>
       </c>
       <c r="D748">
         <v>20.54</v>
@@ -75309,7 +75309,7 @@
         <v>9</v>
       </c>
       <c r="C749">
-        <v>10.37</v>
+        <v>17.92</v>
       </c>
       <c r="D749">
         <v>19.94</v>
@@ -75407,7 +75407,7 @@
         <v>1</v>
       </c>
       <c r="C750">
-        <v>30.01</v>
+        <v>128.68</v>
       </c>
       <c r="D750">
         <v>19.55</v>
@@ -75505,7 +75505,7 @@
         <v>1</v>
       </c>
       <c r="C751">
-        <v>4.18</v>
+        <v>17.47</v>
       </c>
       <c r="D751">
         <v>20.38</v>
@@ -75597,7 +75597,7 @@
         <v>1</v>
       </c>
       <c r="C752">
-        <v>12.07</v>
+        <v>145.65</v>
       </c>
       <c r="D752">
         <v>20.8</v>
@@ -75689,7 +75689,7 @@
         <v>7</v>
       </c>
       <c r="C753">
-        <v>4.78</v>
+        <v>11.43</v>
       </c>
       <c r="D753">
         <v>20.28</v>
@@ -75876,7 +75876,7 @@
         <v>7</v>
       </c>
       <c r="C755">
-        <v>4.91</v>
+        <v>3.01</v>
       </c>
       <c r="D755">
         <v>20.3</v>
@@ -75974,7 +75974,7 @@
         <v>18</v>
       </c>
       <c r="C756">
-        <v>9.119999999999999</v>
+        <v>27.73</v>
       </c>
       <c r="D756">
         <v>18.67</v>
@@ -76072,7 +76072,7 @@
         <v>4</v>
       </c>
       <c r="C757">
-        <v>3.5</v>
+        <v>6.12</v>
       </c>
       <c r="D757">
         <v>20.4</v>
@@ -76170,7 +76170,7 @@
         <v>16</v>
       </c>
       <c r="C758">
-        <v>21.56</v>
+        <v>66.41</v>
       </c>
       <c r="D758">
         <v>19.84</v>
@@ -76265,7 +76265,7 @@
         <v>6</v>
       </c>
       <c r="C759">
-        <v>6.05</v>
+        <v>36.6</v>
       </c>
       <c r="D759">
         <v>19.69</v>
@@ -76363,7 +76363,7 @@
         <v>24</v>
       </c>
       <c r="C760">
-        <v>7.13</v>
+        <v>25.41</v>
       </c>
       <c r="D760">
         <v>18.84</v>
@@ -76550,7 +76550,7 @@
         <v>113</v>
       </c>
       <c r="C762">
-        <v>8.58</v>
+        <v>73.62</v>
       </c>
       <c r="D762">
         <v>17.35</v>
@@ -76642,7 +76642,7 @@
         <v>32</v>
       </c>
       <c r="C763">
-        <v>9.029999999999999</v>
+        <v>40.79</v>
       </c>
       <c r="D763">
         <v>20.01</v>
@@ -76740,7 +76740,7 @@
         <v>15</v>
       </c>
       <c r="C764">
-        <v>8.539999999999999</v>
+        <v>72.94</v>
       </c>
       <c r="D764">
         <v>20.55</v>
@@ -77016,7 +77016,7 @@
         <v>147</v>
       </c>
       <c r="C767">
-        <v>4.97</v>
+        <v>24.7</v>
       </c>
       <c r="D767">
         <v>20.29</v>
@@ -77114,7 +77114,7 @@
         <v>12</v>
       </c>
       <c r="C768">
-        <v>16.39</v>
+        <v>67.14</v>
       </c>
       <c r="D768">
         <v>19.5</v>
@@ -77212,7 +77212,7 @@
         <v>335</v>
       </c>
       <c r="C769">
-        <v>11.24</v>
+        <v>10.53</v>
       </c>
       <c r="D769">
         <v>19.98</v>
@@ -77310,7 +77310,7 @@
         <v>1</v>
       </c>
       <c r="C770">
-        <v>11.53</v>
+        <v>33.24</v>
       </c>
       <c r="D770">
         <v>20.31</v>
@@ -77408,7 +77408,7 @@
         <v>18</v>
       </c>
       <c r="C771">
-        <v>6.83</v>
+        <v>46.65</v>
       </c>
       <c r="D771">
         <v>20.98</v>
@@ -77500,7 +77500,7 @@
         <v>21</v>
       </c>
       <c r="C772">
-        <v>4.4</v>
+        <v>19.34</v>
       </c>
       <c r="D772">
         <v>20.07</v>
@@ -77595,7 +77595,7 @@
         <v>8</v>
       </c>
       <c r="C773">
-        <v>9.94</v>
+        <v>49.42</v>
       </c>
       <c r="D773">
         <v>19.3</v>
@@ -77693,7 +77693,7 @@
         <v>78</v>
       </c>
       <c r="C774">
-        <v>14.34</v>
+        <v>14.69</v>
       </c>
       <c r="D774">
         <v>20.41</v>
@@ -77791,7 +77791,7 @@
         <v>256</v>
       </c>
       <c r="C775">
-        <v>17.12</v>
+        <v>18.32</v>
       </c>
       <c r="D775">
         <v>20.43</v>
@@ -77975,7 +77975,7 @@
         <v>5</v>
       </c>
       <c r="C777">
-        <v>7.69</v>
+        <v>59.15</v>
       </c>
       <c r="D777">
         <v>20.42</v>
@@ -78168,7 +78168,7 @@
         <v>84</v>
       </c>
       <c r="C779">
-        <v>7.94</v>
+        <v>21</v>
       </c>
       <c r="D779">
         <v>19.72</v>
@@ -78361,7 +78361,7 @@
         <v>75</v>
       </c>
       <c r="C781">
-        <v>13.46</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="D781">
         <v>20.54</v>
@@ -78548,7 +78548,7 @@
         <v>8</v>
       </c>
       <c r="C783">
-        <v>13.25</v>
+        <v>43.88</v>
       </c>
       <c r="D783">
         <v>19.53</v>
@@ -78646,7 +78646,7 @@
         <v>9</v>
       </c>
       <c r="C784">
-        <v>9.890000000000001</v>
+        <v>48.92</v>
       </c>
       <c r="D784">
         <v>20.79</v>
@@ -78744,7 +78744,7 @@
         <v>9</v>
       </c>
       <c r="C785">
-        <v>14.81</v>
+        <v>2.44</v>
       </c>
       <c r="D785">
         <v>19.63</v>
@@ -78937,7 +78937,7 @@
         <v>6</v>
       </c>
       <c r="C787">
-        <v>16.76</v>
+        <v>93.63</v>
       </c>
       <c r="D787">
         <v>19.38</v>
@@ -79035,7 +79035,7 @@
         <v>4</v>
       </c>
       <c r="C788">
-        <v>16.97</v>
+        <v>143.96</v>
       </c>
       <c r="D788">
         <v>19.96</v>
@@ -79127,7 +79127,7 @@
         <v>109</v>
       </c>
       <c r="C789">
-        <v>20.06</v>
+        <v>44.7</v>
       </c>
       <c r="D789">
         <v>19.86</v>
@@ -79225,7 +79225,7 @@
         <v>35</v>
       </c>
       <c r="C790">
-        <v>6.81</v>
+        <v>23.18</v>
       </c>
       <c r="D790">
         <v>19.6</v>
@@ -79323,7 +79323,7 @@
         <v>12</v>
       </c>
       <c r="C791">
-        <v>15.45</v>
+        <v>34.1</v>
       </c>
       <c r="D791">
         <v>19.74</v>
@@ -79421,7 +79421,7 @@
         <v>5</v>
       </c>
       <c r="C792">
-        <v>8.470000000000001</v>
+        <v>35.88</v>
       </c>
       <c r="D792">
         <v>20.55</v>
@@ -79519,7 +79519,7 @@
         <v>2</v>
       </c>
       <c r="C793">
-        <v>6.54</v>
+        <v>21.38</v>
       </c>
       <c r="D793">
         <v>20.68</v>
@@ -79617,7 +79617,7 @@
         <v>7</v>
       </c>
       <c r="C794">
-        <v>9.93</v>
+        <v>32.87</v>
       </c>
       <c r="D794">
         <v>20.39</v>
@@ -79804,7 +79804,7 @@
         <v>1</v>
       </c>
       <c r="C796">
-        <v>6.01</v>
+        <v>36.12</v>
       </c>
       <c r="D796">
         <v>20.82</v>
@@ -80080,7 +80080,7 @@
         <v>3</v>
       </c>
       <c r="C799">
-        <v>2.6</v>
+        <v>6.75</v>
       </c>
       <c r="D799">
         <v>20.74</v>
@@ -80261,7 +80261,7 @@
         <v>2</v>
       </c>
       <c r="C801">
-        <v>4.76</v>
+        <v>22.63</v>
       </c>
       <c r="D801">
         <v>20.92</v>
@@ -80620,7 +80620,7 @@
         <v>1</v>
       </c>
       <c r="C805">
-        <v>37.82</v>
+        <v>1430.41</v>
       </c>
       <c r="D805">
         <v>20.76</v>
@@ -80712,7 +80712,7 @@
         <v>2</v>
       </c>
       <c r="C806">
-        <v>4.22</v>
+        <v>17.8</v>
       </c>
       <c r="D806">
         <v>20.92</v>
@@ -80807,7 +80807,7 @@
         <v>18</v>
       </c>
       <c r="C807">
-        <v>16.54</v>
+        <v>1.7</v>
       </c>
       <c r="D807">
         <v>20.42</v>
@@ -80905,7 +80905,7 @@
         <v>1</v>
       </c>
       <c r="C808">
-        <v>15</v>
+        <v>112.48</v>
       </c>
       <c r="D808">
         <v>20.79</v>
@@ -80997,7 +80997,7 @@
         <v>7</v>
       </c>
       <c r="C809">
-        <v>17.04</v>
+        <v>26.39</v>
       </c>
       <c r="D809">
         <v>20.52</v>
@@ -81537,7 +81537,7 @@
         <v>1</v>
       </c>
       <c r="C815">
-        <v>22.38</v>
+        <v>125.22</v>
       </c>
       <c r="D815">
         <v>20.75</v>
@@ -81718,7 +81718,7 @@
         <v>2</v>
       </c>
       <c r="C817">
-        <v>7.97</v>
+        <v>63.53</v>
       </c>
       <c r="D817">
         <v>21.08</v>
@@ -81988,7 +81988,7 @@
         <v>9</v>
       </c>
       <c r="C820">
-        <v>19.66</v>
+        <v>29.74</v>
       </c>
       <c r="D820">
         <v>20.27</v>
@@ -82086,7 +82086,7 @@
         <v>5</v>
       </c>
       <c r="C821">
-        <v>11.85</v>
+        <v>14.04</v>
       </c>
       <c r="D821">
         <v>20.78</v>
@@ -82359,7 +82359,7 @@
         <v>3</v>
       </c>
       <c r="C824">
-        <v>10.95</v>
+        <v>23.99</v>
       </c>
       <c r="D824">
         <v>20.97</v>
@@ -82457,7 +82457,7 @@
         <v>7</v>
       </c>
       <c r="C825">
-        <v>7.53</v>
+        <v>56.68</v>
       </c>
       <c r="D825">
         <v>20.3</v>
@@ -82555,7 +82555,7 @@
         <v>3</v>
       </c>
       <c r="C826">
-        <v>14.67</v>
+        <v>6.15</v>
       </c>
       <c r="D826">
         <v>20.51</v>
@@ -82748,7 +82748,7 @@
         <v>15</v>
       </c>
       <c r="C828">
-        <v>12.58</v>
+        <v>6.08</v>
       </c>
       <c r="D828">
         <v>20.27</v>
@@ -82846,7 +82846,7 @@
         <v>5</v>
       </c>
       <c r="C829">
-        <v>15.14</v>
+        <v>114.64</v>
       </c>
       <c r="D829">
         <v>20.28</v>
@@ -82944,7 +82944,7 @@
         <v>3</v>
       </c>
       <c r="C830">
-        <v>21.5</v>
+        <v>77.04000000000001</v>
       </c>
       <c r="D830">
         <v>21.15</v>
@@ -83042,7 +83042,7 @@
         <v>6</v>
       </c>
       <c r="C831">
-        <v>6.82</v>
+        <v>15.5</v>
       </c>
       <c r="D831">
         <v>20.17</v>
@@ -83140,7 +83140,7 @@
         <v>3</v>
       </c>
       <c r="C832">
-        <v>5.68</v>
+        <v>32.29</v>
       </c>
       <c r="D832">
         <v>20.16</v>
@@ -83238,7 +83238,7 @@
         <v>3</v>
       </c>
       <c r="C833">
-        <v>5.52</v>
+        <v>7.62</v>
       </c>
       <c r="D833">
         <v>20.5</v>
@@ -83336,7 +83336,7 @@
         <v>3</v>
       </c>
       <c r="C834">
-        <v>13.68</v>
+        <v>62.38</v>
       </c>
       <c r="D834">
         <v>20.41</v>
@@ -83434,7 +83434,7 @@
         <v>3</v>
       </c>
       <c r="C835">
-        <v>11.04</v>
+        <v>17.41</v>
       </c>
       <c r="D835">
         <v>21.24</v>
@@ -83627,7 +83627,7 @@
         <v>0</v>
       </c>
       <c r="C837">
-        <v>14.39</v>
+        <v>41.41</v>
       </c>
       <c r="D837">
         <v>20.42</v>
@@ -83820,7 +83820,7 @@
         <v>3</v>
       </c>
       <c r="C839">
-        <v>13.43</v>
+        <v>9.02</v>
       </c>
       <c r="D839">
         <v>19.92</v>
@@ -83918,7 +83918,7 @@
         <v>8</v>
       </c>
       <c r="C840">
-        <v>9.880000000000001</v>
+        <v>48.81</v>
       </c>
       <c r="D840">
         <v>19.19</v>
